--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="OutrightBCHwithoutMaintenanceEd" sheetId="1" state="visible" r:id="rId2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="72">
   <si>
     <t xml:space="preserve">manufacturer</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t xml:space="preserve">main_cost_used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A8</t>
   </si>
   <si>
     <t xml:space="preserve">YES</t>
@@ -375,11 +372,11 @@
   </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="24.45"/>
@@ -528,7 +525,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -678,7 +675,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -835,7 +832,7 @@
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -947,7 +944,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1041,7 +1038,7 @@
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1149,11 +1146,11 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -1229,7 +1226,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -1268,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>0.2</v>
@@ -1308,7 +1305,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1444,7 +1441,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1580,7 +1577,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -1695,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>0.2</v>
@@ -1735,7 +1732,7 @@
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -1878,7 +1875,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -2046,7 +2043,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -2161,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>0.2</v>
@@ -2201,7 +2198,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2295,7 +2292,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -2323,19 +2320,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>58</v>
@@ -2344,7 +2341,7 @@
         <v>60</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,7 +2407,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.82"/>
@@ -2532,7 +2529,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
@@ -2714,7 +2711,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
@@ -2848,7 +2845,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3008,7 +3005,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -3158,7 +3155,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3318,7 +3315,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="OutrightBCHwithoutMaintenanceEd" sheetId="1" state="visible" r:id="rId2"/>
@@ -372,11 +372,11 @@
   </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="24.45"/>
@@ -482,7 +482,7 @@
         <v>199.99</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>21</v>
@@ -525,7 +525,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -675,7 +675,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -832,7 +832,7 @@
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -944,7 +944,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1038,7 +1038,7 @@
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1146,11 +1146,11 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -1305,7 +1305,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1441,7 +1441,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1577,7 +1577,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -1732,7 +1732,7 @@
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -1875,7 +1875,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -2043,7 +2043,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -2198,7 +2198,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2292,7 +2292,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -2407,7 +2407,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.82"/>
@@ -2529,7 +2529,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
@@ -2711,7 +2711,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
@@ -2845,7 +2845,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3005,7 +3005,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -3155,7 +3155,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3315,7 +3315,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -8,28 +8,30 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="OutrightBCHwithoutMaintenanceEd" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="BrokerFLwithoutMaintenanceEdit" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="BrokerFLwithoutMaintenance" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="BrokerFLwithMaintenanceEdit" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="BrokerFLwithMaintenance" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="BrokerPCHwithMaintenanceEdit" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="BrokerPCHwithoutMaintenanceEdit" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="BrokerBCHwithMaintenanceEdit" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="xyz" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="BrokerBCHwithoutMaintenanceEdit" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="BrokerPCPwithoutMaintenance" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="BrokerPCHwithMaintenance" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="BrokerPCHwithoutMaintenance" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="BrokerBCHwithMaintenance" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="OutrightFLwithMaintenance" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="OutrightPCHwithoutMaintenance" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="OutrightFLwithoutMaintenance" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="OutrightPCHwithMaintenance" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="OutrightBCHwithoutMaintenance" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="OutrightBCHwithMaintenance" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="BrokerBCHwithoutMaintenance" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="audibrokerHPR" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="BrokerHPR" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="BrokerCPwithoutMaintenance" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="OutrightBCHwithoutMaintenanceEd" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="BrokerFLwithoutMaintenanceEdit" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="BrokerFLwithoutMaintenance" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="BrokerFLwithMaintenanceEdit" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="BrokerFLwithMaintenance" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="BrokerPCHwithMaintenanceEdit" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="BrokerPCHwithoutMaintenanceEdit" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="BrokerBCHwithMaintenanceEdit" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="xyz" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="BrokerBCHwithoutMaintenanceEdit" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="BrokerPCPwithoutMaintenance" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="BrokerPCHwithMaintenance" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="BrokerPCHwithoutMaintenance" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="BrokerBCHwithMaintenance" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="OutrightFLwithMaintenance" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="OutrightPCHwithoutMaintenance" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="OutrightFLwithoutMaintenance" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="OutrightPCHwithMaintenance" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="OutrightBCHwithoutMaintenance" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="OutrightBCHwithMaintenance" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="BrokerBCHwithoutMaintenance" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="audibrokerHPR" sheetId="24" state="visible" r:id="rId25"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -41,14 +43,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="73">
+  <si>
+    <t xml:space="preserve">manufacturer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vehicleProfit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quoteRef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quoteExpiryDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milesperannum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contractMileage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cashDeposite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">financeCharges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noOfMmonthlyPayments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthlyfinancePayment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finalBallonPayment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optionToPurchaseFee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rflIncluded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partExchangeActual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partExchangeGiven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lessFinanceSettlement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheet_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REF001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula1-BCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthlyfinanceRental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optionalFinalPayment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">penceperExcessMileFinance</t>
+  </si>
   <si>
     <t xml:space="preserve">manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">model</t>
-  </si>
-  <si>
     <t xml:space="preserve">vehicle_basic_price</t>
   </si>
   <si>
@@ -97,66 +183,21 @@
     <t xml:space="preserve">target_rental</t>
   </si>
   <si>
-    <t xml:space="preserve">sheet_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A7</t>
-  </si>
-  <si>
     <t xml:space="preserve">NO</t>
   </si>
   <si>
-    <t xml:space="preserve">Formula1-BCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manufacturer </t>
-  </si>
-  <si>
     <t xml:space="preserve">otrPriceForInvoice</t>
   </si>
   <si>
-    <t xml:space="preserve">quoteRef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quoteExpiryDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">milesperannum</t>
-  </si>
-  <si>
     <t xml:space="preserve">initialFinanceRental</t>
   </si>
   <si>
-    <t xml:space="preserve">monthlyfinanceRental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finalBallonPayment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">penceperExcessMileFinance</t>
-  </si>
-  <si>
     <t xml:space="preserve">percentageOfSaleProceedsToCustomer</t>
   </si>
   <si>
     <t xml:space="preserve">secondaryHirePeriodRental</t>
   </si>
   <si>
-    <t xml:space="preserve">commission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partExchangeActual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partExchangeGiven</t>
-  </si>
-  <si>
     <t xml:space="preserve">LessFinanceSettlement</t>
   </si>
   <si>
@@ -166,9 +207,6 @@
     <t xml:space="preserve">documentFee</t>
   </si>
   <si>
-    <t xml:space="preserve">REF001</t>
-  </si>
-  <si>
     <t xml:space="preserve">Formula1-FL</t>
   </si>
   <si>
@@ -202,36 +240,6 @@
     <t xml:space="preserve">matrix_upsell</t>
   </si>
   <si>
-    <t xml:space="preserve">vehicleProfit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contractMileage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cashDeposite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noOfMmonthlyPayments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optionalFinalPayment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optionToPurchaseFee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rflIncluded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lessFinanceSettlement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">percentage_cap_maintenance_cost_used</t>
   </si>
   <si>
@@ -245,9 +253,6 @@
   </si>
   <si>
     <t xml:space="preserve">cashdeposite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">financeCharges</t>
   </si>
   <si>
     <t xml:space="preserve">monthlyFinancePayment</t>
@@ -341,12 +346,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -370,22 +375,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,106 +410,116 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>20000</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>6000</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>199.99</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1" t="n">
+      <c r="T2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>22</v>
+      <c r="U2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -519,87 +532,88 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>50000</v>
@@ -611,9 +625,9 @@
         <v>60000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>44959</v>
       </c>
       <c r="H2" s="1" t="n">
@@ -626,37 +640,46 @@
         <v>1000</v>
       </c>
       <c r="K2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="M2" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="N2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" s="1" t="n">
+      <c r="O2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="R2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="S2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="T2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="U2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>22</v>
+      <c r="V2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -669,145 +692,131 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="3" t="n">
+      <c r="H2" s="1" t="n">
+        <v>25000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="n">
         <v>44959</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="M2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>900</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="n">
+      <c r="N2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="1" t="n">
+      <c r="P2" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="Q2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="R2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>22</v>
+      <c r="R2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -826,106 +835,144 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>44959</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="I2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="K2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="M2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -938,82 +985,145 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>44959</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="F2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="G2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H2" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="I2" s="1" t="n">
+      <c r="M2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="P2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>48</v>
+      <c r="R2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1035,66 +1145,66 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>44959</v>
       </c>
       <c r="E2" s="1" t="n">
@@ -1125,7 +1235,7 @@
         <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1144,22 +1254,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1176,117 +1279,63 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44959</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>6000</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>199.99</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>42</v>
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1299,15 +1348,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1326,103 +1375,79 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>18</v>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="1" t="n">
         <v>20</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>6000</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>199.99</v>
+        <v>2</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>48</v>
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1435,76 +1460,89 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>18</v>
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -1516,43 +1554,49 @@
         <v>100</v>
       </c>
       <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="M2" s="1" t="n">
         <v>199.99</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="N2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1571,89 +1615,76 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -1665,49 +1696,43 @@
         <v>100</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>2000</v>
+        <v>199.99</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>199.99</v>
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>0.2</v>
+      <c r="O2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1728,81 +1753,74 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="27.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -1835,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>0</v>
@@ -1844,13 +1862,13 @@
         <v>200</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1869,25 +1887,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1899,126 +1914,118 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>44959</v>
       </c>
+      <c r="F2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>5000</v>
+      </c>
       <c r="H2" s="1" t="n">
-        <v>12</v>
+        <v>3000</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>1000</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="J2" s="1"/>
       <c r="K2" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="M2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>15</v>
-      </c>
       <c r="P2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Q2" s="1" t="n">
-        <v>5000</v>
-      </c>
       <c r="R2" s="1" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>42</v>
+      <c r="U2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2039,11 +2046,11 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -2054,72 +2061,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
+        <v>66</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -2158,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>0.2</v>
@@ -2167,13 +2174,13 @@
         <v>200</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="S2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2192,88 +2199,137 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
+      <c r="H1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>44959</v>
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G2" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
+      <c r="K2" s="1" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2286,13 +2342,262 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>6000</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -2305,54 +2610,54 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>44959</v>
@@ -2401,13 +2706,330 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="27.69"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.6"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.82"/>
@@ -2421,59 +3043,59 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>44959</v>
       </c>
       <c r="E2" s="1" t="n">
@@ -2504,323 +3126,7 @@
         <v>5</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Y2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>44959</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>5000</v>
-      </c>
-      <c r="U2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="V2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="W2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="X2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>44959</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2839,88 +3145,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>50000</v>
@@ -2932,9 +3251,9 @@
         <v>60000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>44959</v>
       </c>
       <c r="H2" s="1" t="n">
@@ -2956,31 +3275,40 @@
         <v>400</v>
       </c>
       <c r="N2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="P2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="Q2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="T2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="U2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="V2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="W2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="U2" s="1" t="n">
+      <c r="X2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>48</v>
+      <c r="Y2" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2999,144 +3327,128 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>44959</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>12</v>
-      </c>
       <c r="I2" s="1" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>2</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>2000</v>
+        <v>15</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3151,86 +3463,86 @@
   </sheetPr>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>50000</v>
@@ -3242,9 +3554,9 @@
         <v>60000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>44959</v>
       </c>
       <c r="H2" s="1" t="n">
@@ -3290,7 +3602,7 @@
         <v>200</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3309,83 +3621,87 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>18</v>
+        <v>53</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>50000</v>
@@ -3394,52 +3710,55 @@
         <v>600</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>20</v>
+        <v>60000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>44959</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>25000</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>44959</v>
+        <v>5000</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2000</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="n">
         <v>5000</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>1000</v>
       </c>
       <c r="O2" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>22</v>
+        <v>1000</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -8,30 +8,31 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="BrokerHPR" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="BrokerCPwithoutMaintenance" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="OutrightBCHwithoutMaintenanceEd" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="BrokerFLwithoutMaintenanceEdit" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="BrokerFLwithoutMaintenance" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="BrokerFLwithMaintenanceEdit" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="BrokerFLwithMaintenance" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="BrokerPCHwithMaintenanceEdit" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="BrokerPCHwithoutMaintenanceEdit" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="BrokerBCHwithMaintenanceEdit" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="xyz" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="BrokerBCHwithoutMaintenanceEdit" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="BrokerPCPwithoutMaintenance" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="BrokerPCHwithMaintenance" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="BrokerPCHwithoutMaintenance" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="BrokerBCHwithMaintenance" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="OutrightFLwithMaintenance" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="OutrightPCHwithoutMaintenance" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="OutrightFLwithoutMaintenance" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="OutrightPCHwithMaintenance" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="OutrightBCHwithoutMaintenance" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="OutrightBCHwithMaintenance" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="BrokerBCHwithoutMaintenance" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="audibrokerHPR" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="BrokerHPNR" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="BrokerHPR" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="BrokerCPwithoutMaintenance" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="OutrightBCHwithoutMaintenanceEd" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="BrokerFLwithoutMaintenanceEdit" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="BrokerFLwithoutMaintenance" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="BrokerFLwithMaintenanceEdit" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="BrokerFLwithMaintenance" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="BrokerPCHwithMaintenanceEdit" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="BrokerPCHwithoutMaintenanceEdit" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="BrokerBCHwithMaintenanceEdit" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="xyz" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="BrokerBCHwithoutMaintenanceEdit" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="BrokerPCPwithoutMaintenance" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="BrokerPCHwithMaintenance" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="BrokerPCHwithoutMaintenance" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="BrokerBCHwithMaintenance" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="OutrightFLwithMaintenance" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="OutrightPCHwithoutMaintenance" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="OutrightFLwithoutMaintenance" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="OutrightPCHwithMaintenance" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="OutrightBCHwithoutMaintenance" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="OutrightBCHwithMaintenance" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="BrokerBCHwithoutMaintenance" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="audibrokerHPR" sheetId="25" state="visible" r:id="rId26"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="73">
   <si>
     <t xml:space="preserve">manufacturer </t>
   </si>
@@ -378,10 +379,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -532,13 +533,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -572,39 +581,30 @@
         <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -640,46 +640,37 @@
         <v>1000</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="L2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="M2" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="P2" s="1" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -692,20 +683,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.43"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -721,45 +705,57 @@
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -777,45 +773,57 @@
         <v>600</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G2" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>25000</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>44959</v>
-      </c>
       <c r="L2" s="1" t="n">
-        <v>12</v>
+        <v>2000</v>
       </c>
       <c r="M2" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="R2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="T2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="O2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="U2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -835,20 +843,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,48 +872,45 @@
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -924,55 +928,52 @@
         <v>600</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>25000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="K2" s="2" t="n">
         <v>44959</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="M2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="N2" s="1" t="n">
         <v>1000</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>5000</v>
       </c>
       <c r="O2" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="S2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -985,17 +986,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,60 +1010,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1071,65 +1069,61 @@
         <v>22</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="G2" s="2" t="n">
         <v>44959</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="I2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>900</v>
-      </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="n">
+        <v>1000</v>
+      </c>
       <c r="K2" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="L2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="M2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="R2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="T2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1142,13 +1136,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1158,39 +1157,60 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1201,41 +1221,60 @@
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="E2" s="2" t="n">
         <v>44959</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="F2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="G2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H2" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="K2" s="1" t="n">
+      <c r="M2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>60</v>
+      <c r="P2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1254,13 +1293,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1285,15 +1324,24 @@
         <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1320,15 +1368,24 @@
         <v>1000</v>
       </c>
       <c r="H2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="J2" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="K2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1348,13 +1405,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1379,24 +1436,15 @@
         <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1423,25 +1471,16 @@
         <v>1000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1460,80 +1499,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1544,65 +1558,47 @@
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44959</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>6000</v>
+        <v>400</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>199.99</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1615,13 +1611,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1640,42 +1643,48 @@
         <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1696,43 +1705,49 @@
         <v>100</v>
       </c>
       <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="M2" s="1" t="n">
         <v>199.99</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>60</v>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1753,11 +1768,11 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1868,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1889,13 +1904,13 @@
   </sheetPr>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
   </cols>
@@ -1929,22 +1944,22 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>15</v>
@@ -1993,21 +2008,21 @@
       <c r="I2" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="n">
+      <c r="J2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="M2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="N2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>2</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>1</v>
@@ -2044,20 +2059,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2076,48 +2084,42 @@
         <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>66</v>
+      <c r="G1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2138,49 +2140,43 @@
         <v>100</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>2000</v>
+        <v>199.99</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>199.99</v>
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>0.2</v>
+      <c r="O2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2199,18 +2195,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -2231,42 +2227,48 @@
         <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2287,43 +2289,49 @@
         <v>100</v>
       </c>
       <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="M2" s="1" t="n">
         <v>199.99</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>25</v>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2342,18 +2350,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="27.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -2374,48 +2382,42 @@
         <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>66</v>
+      <c r="G1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2436,48 +2438,42 @@
         <v>100</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>2000</v>
+        <v>199.99</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>199.99</v>
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>0.2</v>
+      <c r="O2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2497,46 +2493,80 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2547,38 +2577,65 @@
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>44959</v>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>6000</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2591,13 +2648,107 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -2706,77 +2857,81 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2788,54 +2943,58 @@
         <v>22</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>60000</v>
+        <v>1200</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>44959</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>6000</v>
-      </c>
-      <c r="J2" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>1000</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>199.99</v>
       </c>
       <c r="M2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>46</v>
+      <c r="N2" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="T2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2855,25 +3014,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="27.69"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2885,57 +3043,48 @@
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2955,56 +3104,47 @@
       <c r="E2" s="1" t="n">
         <v>60000</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>44959</v>
+      <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>20000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>12</v>
+        <v>10000</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="J2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="K2" s="1" t="n">
-        <v>2000</v>
-      </c>
       <c r="L2" s="1" t="n">
-        <v>10</v>
+        <v>199.99</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>5000</v>
+        <v>200</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3023,13 +3163,181 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.6"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.82"/>
@@ -3126,188 +3434,6 @@
         <v>5</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Y2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>44959</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>5000</v>
-      </c>
-      <c r="U2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="V2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="W2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="X2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y2" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3327,16 +3453,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3347,48 +3473,72 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3399,49 +3549,73 @@
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="G2" s="2" t="n">
         <v>44959</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="I2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="M2" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="N2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="P2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="Q2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="R2" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="S2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="W2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="X2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3461,13 +3635,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3477,63 +3655,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3544,65 +3707,50 @@
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>600</v>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44959</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>44959</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="Q2" s="1" t="n">
-        <v>5000</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>60</v>
+      <c r="Q2" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3621,21 +3769,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3669,30 +3809,39 @@
         <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3728,37 +3877,46 @@
         <v>1000</v>
       </c>
       <c r="K2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="M2" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="N2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" s="1" t="n">
+      <c r="O2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="R2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="S2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="T2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="U2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>25</v>
+      <c r="V2" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,34 +5,36 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
-    <sheet name="BrokerHPNR" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="BrokerHPR" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="BrokerCPwithoutMaintenance" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="OutrightBCHwithoutMaintenanceEd" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="BrokerFLwithoutMaintenanceEdit" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="BrokerFLwithoutMaintenance" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="BrokerFLwithMaintenanceEdit" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="BrokerFLwithMaintenance" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="BrokerPCHwithMaintenanceEdit" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="BrokerPCHwithoutMaintenanceEdit" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="BrokerBCHwithMaintenanceEdit" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="xyz" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="BrokerBCHwithoutMaintenanceEdit" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="BrokerPCPwithoutMaintenance" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="BrokerPCHwithMaintenance" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="BrokerPCHwithoutMaintenance" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="BrokerBCHwithMaintenance" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="OutrightFLwithMaintenance" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="OutrightPCHwithoutMaintenance" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="OutrightFLwithoutMaintenance" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="OutrightPCHwithMaintenance" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="OutrightBCHwithoutMaintenance" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="OutrightBCHwithMaintenance" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="BrokerBCHwithoutMaintenance" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="audibrokerHPR" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="BrokerCPwithMaintenance" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="BrokerPCPwithMaintenance" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="BrokerHPNR" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="BrokerHPR" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="BrokerCPwithoutMaintenance" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="OutrightBCHwithoutMaintenanceEd" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="BrokerFLwithoutMaintenanceEdit" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="BrokerFLwithoutMaintenance" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="BrokerFLwithMaintenanceEdit" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="BrokerFLwithMaintenance" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="BrokerPCHwithMaintenanceEdit" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="BrokerPCHwithoutMaintenanceEdit" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="BrokerBCHwithMaintenanceEdit" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="xyz" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="BrokerBCHwithoutMaintenanceEdit" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="BrokerPCPwithoutMaintenance" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="BrokerPCHwithMaintenance" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="BrokerPCHwithoutMaintenance" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="BrokerBCHwithMaintenance" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="OutrightFLwithMaintenance" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="OutrightPCHwithoutMaintenance" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="OutrightFLwithoutMaintenance" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="OutrightPCHwithMaintenance" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="OutrightBCHwithoutMaintenance" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="OutrightBCHwithMaintenance" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="BrokerBCHwithoutMaintenance" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="audibrokerHPR" sheetId="27" state="visible" r:id="rId28"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="74">
   <si>
     <t xml:space="preserve">manufacturer </t>
   </si>
@@ -73,66 +75,72 @@
     <t xml:space="preserve">cashDeposite</t>
   </si>
   <si>
+    <t xml:space="preserve">noOfMmonthlyPayments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthlyfinanceRental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optionalFinalPayment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthlyMaintenancePayment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optionToPurchaseFee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rflIncluded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">penceperExcessMileFinance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">penceperExcessMileMaintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partExchangeActual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partExchangeGiven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lessFinanceSettlement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheet_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REF001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula1-BCH</t>
+  </si>
+  <si>
     <t xml:space="preserve">financeCharges</t>
   </si>
   <si>
-    <t xml:space="preserve">noOfMmonthlyPayments</t>
-  </si>
-  <si>
     <t xml:space="preserve">monthlyfinancePayment</t>
   </si>
   <si>
     <t xml:space="preserve">finalBallonPayment</t>
   </si>
   <si>
-    <t xml:space="preserve">optionToPurchaseFee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rflIncluded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partExchangeActual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partExchangeGiven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lessFinanceSettlement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sheet_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REF001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula1-BCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monthlyfinanceRental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optionalFinalPayment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">penceperExcessMileFinance</t>
-  </si>
-  <si>
     <t xml:space="preserve">manufacturer</t>
   </si>
   <si>
@@ -218,9 +226,6 @@
   </si>
   <si>
     <t xml:space="preserve">finalBalloonPayment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">penceperExcessMileMaintenance</t>
   </si>
   <si>
     <t xml:space="preserve">commision</t>
@@ -376,17 +381,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -453,19 +458,25 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44959</v>
@@ -483,38 +494,46 @@
         <v>900</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2000</v>
+      </c>
       <c r="L2" s="1" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>100</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="S2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="T2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="U2" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="V2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>25</v>
+      <c r="W2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -533,20 +552,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,120 +572,108 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>600</v>
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44959</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>44959</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>2</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>2000</v>
+        <v>15</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -685,11 +688,11 @@
   </sheetPr>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -699,13 +702,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -720,51 +723,51 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>50000</v>
@@ -776,7 +779,7 @@
         <v>60000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>44959</v>
@@ -824,7 +827,7 @@
         <v>200</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -843,19 +846,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,60 +870,63 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>50000</v>
@@ -928,52 +935,55 @@
         <v>600</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>20</v>
+        <v>60000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>44959</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>25000</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>44959</v>
+        <v>5000</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2000</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="n">
         <v>5000</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>1000</v>
       </c>
       <c r="O2" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>25</v>
+        <v>1000</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -986,21 +996,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1010,13 +1012,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1031,42 +1033,51 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
+      <c r="T1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>50000</v>
@@ -1078,7 +1089,7 @@
         <v>60000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>44959</v>
@@ -1093,37 +1104,46 @@
         <v>1000</v>
       </c>
       <c r="K2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="M2" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="N2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" s="1" t="n">
+      <c r="O2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="R2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="S2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="T2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="U2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>25</v>
+      <c r="V2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1136,17 +1156,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1157,124 +1179,108 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>25000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="n">
         <v>44959</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="M2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>900</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="n">
+      <c r="N2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="1" t="n">
+      <c r="P2" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="Q2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="R2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>25</v>
+      <c r="R2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1293,13 +1299,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1309,90 +1323,120 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
+      <c r="S1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>44959</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="I2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="K2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="M2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>60</v>
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1405,13 +1449,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1421,66 +1470,126 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>44959</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="F2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="G2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H2" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="I2" s="1" t="n">
+      <c r="M2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="P2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>60</v>
+      <c r="R2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1502,10 +1611,10 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1527,39 +1636,39 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>44959</v>
@@ -1592,7 +1701,7 @@
         <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1611,149 +1720,88 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44959</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>6000</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>199.99</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>54</v>
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1766,130 +1814,106 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44959</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>6000</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>199.99</v>
+        <v>2</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>60</v>
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1902,17 +1926,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1979,19 +2003,25 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44959</v>
@@ -2009,38 +2039,46 @@
         <v>900</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2000</v>
+      </c>
       <c r="L2" s="1" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>100</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="S2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="T2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="U2" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="V2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>25</v>
+      <c r="W2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2059,38 +2097,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>37</v>
@@ -2119,16 +2164,22 @@
       <c r="Q1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>20</v>
+      <c r="R1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -2140,43 +2191,49 @@
         <v>100</v>
       </c>
       <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="M2" s="1" t="n">
         <v>199.99</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="N2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2195,89 +2252,76 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -2289,49 +2333,43 @@
         <v>100</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>2000</v>
+        <v>199.99</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>199.99</v>
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>0.2</v>
+      <c r="O2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2352,81 +2390,74 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="27.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -2459,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>0</v>
@@ -2468,13 +2499,13 @@
         <v>200</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2495,11 +2526,11 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -2510,72 +2541,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -2614,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>0.2</v>
@@ -2623,13 +2654,13 @@
         <v>200</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2648,88 +2679,137 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>44959</v>
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G2" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>25</v>
+      <c r="K2" s="1" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2742,13 +2822,262 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>6000</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -2761,7 +3090,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2776,39 +3105,39 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>44959</v>
@@ -2859,13 +3188,13 @@
   </sheetPr>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
   </cols>
@@ -2899,54 +3228,54 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44959</v>
@@ -2963,21 +3292,21 @@
       <c r="I2" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="n">
+      <c r="J2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="M2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="N2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>2</v>
+      <c r="O2" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>1</v>
@@ -2995,13 +3324,13 @@
         <v>200</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3014,137 +3343,145 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>45</v>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>20000</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>6000</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>199.99</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1" t="n">
+      <c r="T2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>25</v>
+      <c r="U2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3163,20 +3500,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3187,132 +3521,124 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>44959</v>
       </c>
+      <c r="F2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>5000</v>
+      </c>
       <c r="H2" s="1" t="n">
-        <v>12</v>
+        <v>3000</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>1000</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="J2" s="1"/>
       <c r="K2" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="M2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>15</v>
-      </c>
       <c r="P2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Q2" s="1" t="n">
-        <v>5000</v>
-      </c>
       <c r="R2" s="1" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>54</v>
+      <c r="U2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3331,13 +3657,330 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="27.69"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.6"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.82"/>
@@ -3369,39 +4012,39 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>44959</v>
@@ -3434,323 +4077,7 @@
         <v>5</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Y2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>44959</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>5000</v>
-      </c>
-      <c r="U2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="V2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="W2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="X2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>44959</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3769,13 +4096,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3785,13 +4116,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -3806,51 +4137,60 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
+      <c r="W1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>50000</v>
@@ -3862,7 +4202,7 @@
         <v>60000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>44959</v>
@@ -3886,31 +4226,40 @@
         <v>400</v>
       </c>
       <c r="N2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="P2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="Q2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="T2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="U2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="V2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="W2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="U2" s="1" t="n">
+      <c r="X2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>60</v>
+      <c r="Y2" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerCPwithMaintenance" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,6 +35,7 @@
     <sheet name="OutrightBCHwithMaintenance" sheetId="25" state="visible" r:id="rId26"/>
     <sheet name="BrokerBCHwithoutMaintenance" sheetId="26" state="visible" r:id="rId27"/>
     <sheet name="audibrokerHPR" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="OutrightHPNRwithoutMaintenance" sheetId="28" state="visible" r:id="rId29"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="90">
   <si>
     <t xml:space="preserve">manufacturer </t>
   </si>
@@ -268,6 +269,54 @@
   </si>
   <si>
     <t xml:space="preserve">commisionvalue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacurer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle_Basic_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_terms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vehicle_profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matrix_credit_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">security_deposit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balloon_payment_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_exchange_actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_exchange_given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">less_finance_settlement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_deposit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finance_deposit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document_fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1 Credit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP(N) - HP(N),HP,CP,PCP</t>
   </si>
 </sst>
 </file>
@@ -387,7 +436,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -558,7 +607,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
@@ -692,7 +741,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -852,7 +901,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -1002,7 +1051,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1162,7 +1211,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -1305,7 +1354,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -1451,11 +1500,11 @@
   </sheetPr>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -1614,7 +1663,7 @@
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1726,7 +1775,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1820,7 +1869,7 @@
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1932,7 +1981,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -2103,7 +2152,7 @@
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -2258,7 +2307,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2394,7 +2443,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2530,7 +2579,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -2685,7 +2734,7 @@
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -2828,7 +2877,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -2983,7 +3032,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3077,7 +3126,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -3168,6 +3217,157 @@
       </c>
       <c r="M2" s="1" t="n">
         <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>22000</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3192,7 +3392,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -3349,7 +3549,7 @@
       <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -3506,7 +3706,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -3663,7 +3863,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="24.45"/>
@@ -3812,7 +4012,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -3980,7 +4180,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.82"/>
@@ -4102,7 +4302,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -436,7 +436,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -607,7 +607,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
@@ -741,7 +741,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -901,7 +901,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -1051,7 +1051,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1211,7 +1211,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -1354,7 +1354,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -1504,7 +1504,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -1663,7 +1663,7 @@
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1775,7 +1775,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1869,7 +1869,7 @@
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1981,7 +1981,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -2152,7 +2152,7 @@
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -2307,7 +2307,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2443,7 +2443,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2579,7 +2579,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -2734,7 +2734,7 @@
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -2877,7 +2877,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -3032,7 +3032,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3126,7 +3126,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -3237,11 +3237,11 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -3355,13 +3355,13 @@
         <v>1000</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="S2" s="0" t="n">
         <v>199.99</v>
@@ -3392,7 +3392,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -3549,7 +3549,7 @@
       <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -3706,7 +3706,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -3863,7 +3863,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="24.45"/>
@@ -4012,7 +4012,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -4180,7 +4180,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.82"/>
@@ -4302,7 +4302,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,37 +5,38 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="27"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="28"/>
   </bookViews>
   <sheets>
-    <sheet name="BrokerCPwithMaintenance" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="BrokerPCPwithMaintenance" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="BrokerHPNR" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="BrokerHPR" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="BrokerCPwithoutMaintenance" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="OutrightBCHwithoutMaintenanceEd" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="BrokerFLwithoutMaintenanceEdit" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="BrokerFLwithoutMaintenance" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="BrokerFLwithMaintenanceEdit" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="BrokerFLwithMaintenance" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="BrokerPCHwithMaintenanceEdit" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="BrokerPCHwithoutMaintenanceEdit" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="BrokerBCHwithMaintenanceEdit" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="xyz" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="BrokerBCHwithoutMaintenanceEdit" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="BrokerPCPwithoutMaintenance" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="BrokerPCHwithMaintenance" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="BrokerPCHwithoutMaintenance" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="BrokerBCHwithMaintenance" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="OutrightFLwithMaintenance" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="OutrightPCHwithoutMaintenance" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="OutrightFLwithoutMaintenance" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="OutrightPCHwithMaintenance" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="OutrightBCHwithoutMaintenance" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="OutrightBCHwithMaintenance" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="BrokerBCHwithoutMaintenance" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="audibrokerHPR" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="OutrightHPNRwithoutMaintenance" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="OutrightHPRwithoutMaintenance" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="BrokerCPwithMaintenance" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="BrokerPCPwithMaintenance" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="BrokerHPNR" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="BrokerHPR" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="BrokerCPwithoutMaintenance" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="OutrightBCHwithoutMaintenanceEd" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="BrokerFLwithoutMaintenanceEdit" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="BrokerFLwithoutMaintenance" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="BrokerFLwithMaintenanceEdit" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="BrokerFLwithMaintenance" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="BrokerPCHwithMaintenanceEdit" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="BrokerPCHwithoutMaintenanceEdit" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="BrokerBCHwithMaintenanceEdit" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="xyz" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="BrokerBCHwithoutMaintenanceEdit" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="BrokerPCPwithoutMaintenance" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="BrokerPCHwithMaintenance" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="BrokerPCHwithoutMaintenance" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="BrokerBCHwithMaintenance" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="OutrightFLwithMaintenance" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="OutrightPCHwithoutMaintenance" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="OutrightFLwithoutMaintenance" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="OutrightPCHwithMaintenance" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="OutrightBCHwithoutMaintenance" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="OutrightBCHwithMaintenance" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="BrokerBCHwithoutMaintenance" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="audibrokerHPR" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="OutrightHPNRwithoutMaintenance" sheetId="29" state="visible" r:id="rId30"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -47,14 +48,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="91">
+  <si>
+    <t xml:space="preserve">manufacurer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle_Basic_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">road_tax_for_first_year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage_cap_residual_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">residual_value_used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_terms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_mileage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vehicle_profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matrix_credit_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">security_deposit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balloon_payment_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_exchange_actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_exchange_given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">less_finance_settlement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_deposit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finance_deposit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document_fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheet_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1 Credit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HirePurchaseRegulated</t>
+  </si>
   <si>
     <t xml:space="preserve">manufacturer </t>
   </si>
   <si>
-    <t xml:space="preserve">model</t>
-  </si>
-  <si>
     <t xml:space="preserve">vehicleProfit</t>
   </si>
   <si>
@@ -115,15 +191,6 @@
     <t xml:space="preserve">lessFinanceSettlement</t>
   </si>
   <si>
-    <t xml:space="preserve">sheet_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A7</t>
-  </si>
-  <si>
     <t xml:space="preserve">REF001</t>
   </si>
   <si>
@@ -148,18 +215,12 @@
     <t xml:space="preserve">vehicle_basic_price</t>
   </si>
   <si>
-    <t xml:space="preserve">road_tax_for_first_year</t>
-  </si>
-  <si>
     <t xml:space="preserve">on_road_price_for_invoice</t>
   </si>
   <si>
     <t xml:space="preserve">percentage_cap_residual_value_used</t>
   </si>
   <si>
-    <t xml:space="preserve">residual_value_used</t>
-  </si>
-  <si>
     <t xml:space="preserve">actual_part_exchange_value_from_excel</t>
   </si>
   <si>
@@ -193,9 +254,6 @@
     <t xml:space="preserve">target_rental</t>
   </si>
   <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
     <t xml:space="preserve">otrPriceForInvoice</t>
   </si>
   <si>
@@ -235,15 +293,9 @@
     <t xml:space="preserve">Formula1-PCH</t>
   </si>
   <si>
-    <t xml:space="preserve">percentage_cap_residual_value</t>
-  </si>
-  <si>
     <t xml:space="preserve">additional_term</t>
   </si>
   <si>
-    <t xml:space="preserve">additional_mileage</t>
-  </si>
-  <si>
     <t xml:space="preserve">matrix_upsell</t>
   </si>
   <si>
@@ -253,9 +305,6 @@
     <t xml:space="preserve">main_cost_used</t>
   </si>
   <si>
-    <t xml:space="preserve">YES</t>
-  </si>
-  <si>
     <t xml:space="preserve">milesPerAnnum</t>
   </si>
   <si>
@@ -271,52 +320,7 @@
     <t xml:space="preserve">commisionvalue</t>
   </si>
   <si>
-    <t xml:space="preserve">manufacurer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vehicle_Basic_price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">additional_terms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vehicle_profit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maintenance_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matrix_credit_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">security_deposit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balloon_payment_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part_exchange_actual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part_exchange_given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">less_finance_settlement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order_deposit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finance_deposit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document_fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1 Credit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP(N) - HP(N),HP,CP,PCP</t>
+    <t xml:space="preserve">HirePurchaseNonRegulated</t>
   </si>
 </sst>
 </file>
@@ -430,165 +434,145 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="C2" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="H2" s="0" t="n">
+        <v>22000</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="L2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="N2" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="T2" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>44959</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>900</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="V2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -601,122 +585,170 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>22</v>
+        <v>70</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>44959</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="I2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="M2" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="N2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="P2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="Q2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="R2" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="S2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>56</v>
+      <c r="T2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="W2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="X2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -735,148 +767,122 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>600</v>
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44959</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>44959</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="Q2" s="1" t="n">
-        <v>5000</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>61</v>
+      <c r="Q2" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -895,87 +901,88 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>50000</v>
@@ -987,7 +994,7 @@
         <v>60000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>44959</v>
@@ -1002,37 +1009,46 @@
         <v>1000</v>
       </c>
       <c r="K2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="M2" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="N2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" s="1" t="n">
+      <c r="O2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="R2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="S2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="T2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="U2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>27</v>
+      <c r="V2" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1045,88 +1061,87 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>50000</v>
@@ -1138,7 +1153,7 @@
         <v>60000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>44959</v>
@@ -1153,46 +1168,37 @@
         <v>1000</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="L2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="M2" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="P2" s="1" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>27</v>
+      <c r="S2" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1205,83 +1211,88 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.43"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>50000</v>
@@ -1290,46 +1301,58 @@
         <v>600</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G2" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>25000</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>44959</v>
-      </c>
       <c r="L2" s="1" t="n">
-        <v>12</v>
+        <v>2000</v>
       </c>
       <c r="M2" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="R2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="T2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="O2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>27</v>
+      <c r="U2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1348,87 +1371,83 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>50000</v>
@@ -1437,55 +1456,52 @@
         <v>600</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>25000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="2" t="n">
         <v>44959</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="M2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="N2" s="1" t="n">
         <v>1000</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>5000</v>
       </c>
       <c r="O2" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1498,153 +1514,144 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>44959</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="I2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>900</v>
-      </c>
       <c r="J2" s="1" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="L2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="M2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="R2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="T2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>27</v>
+      <c r="S2" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1657,100 +1664,147 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>44959</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="F2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="G2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H2" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="K2" s="1" t="n">
+      <c r="M2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>61</v>
+      <c r="P2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1769,58 +1823,67 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>44959</v>
@@ -1835,16 +1898,25 @@
         <v>1000</v>
       </c>
       <c r="H2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="J2" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="K2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>61</v>
+      <c r="L2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1863,67 +1935,58 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>44959</v>
@@ -1938,25 +2001,16 @@
         <v>1000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1977,11 +2031,11 @@
   </sheetPr>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -1990,87 +2044,87 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44959</v>
@@ -2088,7 +2142,7 @@
         <v>900</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>2000</v>
@@ -2103,7 +2157,7 @@
         <v>100</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>2</v>
@@ -2127,13 +2181,13 @@
         <v>200</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2146,149 +2200,106 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="J1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>22</v>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44959</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>6000</v>
+        <v>400</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>199.99</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2301,76 +2312,89 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>38</v>
+        <v>83</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>22</v>
+        <v>65</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -2382,43 +2406,49 @@
         <v>100</v>
       </c>
       <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="M2" s="1" t="n">
         <v>199.99</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="1" t="n">
+      <c r="R2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>61</v>
+      <c r="T2" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2439,74 +2469,74 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -2539,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>0</v>
@@ -2548,13 +2578,13 @@
         <v>200</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2573,89 +2603,76 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>22</v>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -2667,49 +2684,43 @@
         <v>100</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>6000</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>199.99</v>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>0.2</v>
+      <c r="O2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2728,83 +2739,89 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>38</v>
+        <v>83</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>22</v>
+        <v>65</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -2816,43 +2833,49 @@
         <v>100</v>
       </c>
       <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="M2" s="1" t="n">
         <v>199.99</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="1" t="n">
+      <c r="R2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>27</v>
+      <c r="T2" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2871,89 +2894,83 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="27.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>22</v>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -2965,49 +2982,43 @@
         <v>100</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>6000</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>199.99</v>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>0.2</v>
+      <c r="O2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3026,17 +3037,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3045,69 +3063,123 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>22</v>
+        <v>84</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>6000</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>44959</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>27</v>
+      <c r="P2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3120,13 +3192,107 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -3139,54 +3305,54 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>44959</v>
@@ -3230,90 +3396,90 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>50000</v>
@@ -3337,16 +3503,16 @@
         <v>1000</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>100</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>2000</v>
@@ -3367,7 +3533,7 @@
         <v>199.99</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3386,96 +3552,102 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44959</v>
@@ -3493,44 +3665,52 @@
         <v>900</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2000</v>
+      </c>
       <c r="L2" s="1" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>100</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="P2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="S2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="T2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="U2" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="V2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>27</v>
+      <c r="W2" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3546,10 +3726,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -3558,81 +3738,81 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44959</v>
@@ -3663,7 +3843,7 @@
         <v>100</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>1</v>
@@ -3681,13 +3861,13 @@
         <v>200</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3702,94 +3882,94 @@
   </sheetPr>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44959</v>
@@ -3806,21 +3986,21 @@
       <c r="I2" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="n">
+      <c r="J2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="M2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="N2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>2</v>
+      <c r="O2" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>1</v>
@@ -3838,7 +4018,7 @@
         <v>200</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3857,137 +4037,145 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>22</v>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>60000</v>
+        <v>1200</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>44959</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>6000</v>
-      </c>
-      <c r="J2" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>1000</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>199.99</v>
       </c>
       <c r="M2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="3" t="s">
         <v>48</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="T2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>27</v>
+      <c r="U2" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4006,96 +4194,86 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="27.69"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>50000</v>
@@ -4106,56 +4284,47 @@
       <c r="E2" s="1" t="n">
         <v>60000</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>44959</v>
+      <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>20000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>12</v>
+        <v>10000</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="J2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="K2" s="1" t="n">
-        <v>2000</v>
-      </c>
       <c r="L2" s="1" t="n">
-        <v>10</v>
+        <v>199.99</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>5000</v>
+        <v>200</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4174,13 +4343,181 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.6"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.82"/>
@@ -4194,57 +4531,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>44959</v>
@@ -4277,189 +4614,7 @@
         <v>5</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Y2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>44959</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>5000</v>
-      </c>
-      <c r="U2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="V2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="W2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="X2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,38 +5,40 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="28"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="OutrightHPRwithoutMaintenance" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="BrokerCPwithMaintenance" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="BrokerPCPwithMaintenance" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="BrokerHPNR" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="BrokerHPR" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="BrokerCPwithoutMaintenance" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="OutrightBCHwithoutMaintenanceEd" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="BrokerFLwithoutMaintenanceEdit" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="BrokerFLwithoutMaintenance" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="BrokerFLwithMaintenanceEdit" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="BrokerFLwithMaintenance" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="BrokerPCHwithMaintenanceEdit" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="BrokerPCHwithoutMaintenanceEdit" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="BrokerBCHwithMaintenanceEdit" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="xyz" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="BrokerBCHwithoutMaintenanceEdit" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="BrokerPCPwithoutMaintenance" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="BrokerPCHwithMaintenance" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="BrokerPCHwithoutMaintenance" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="BrokerBCHwithMaintenance" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="OutrightFLwithMaintenance" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="OutrightPCHwithoutMaintenance" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="OutrightFLwithoutMaintenance" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="OutrightPCHwithMaintenance" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="OutrightBCHwithoutMaintenance" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="OutrightBCHwithMaintenance" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="BrokerBCHwithoutMaintenance" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="audibrokerHPR" sheetId="28" state="visible" r:id="rId29"/>
-    <sheet name="OutrightHPNRwithoutMaintenance" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="OutrightPCPwithoutMaintenance" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="OutrightCPwithoutMaintenance" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="OutrightHPRwithoutMaintenance" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="BrokerCPwithMaintenance" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="BrokerPCPwithMaintenance" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="BrokerHPNR" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="BrokerHPR" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="BrokerCPwithoutMaintenance" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="OutrightBCHwithoutMaintenanceEd" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="BrokerFLwithoutMaintenanceEdit" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="BrokerFLwithoutMaintenance" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="BrokerFLwithMaintenanceEdit" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="BrokerFLwithMaintenance" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="BrokerPCHwithMaintenanceEdit" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="BrokerPCHwithoutMaintenanceEdit" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="BrokerBCHwithMaintenanceEdit" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="xyz" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="BrokerBCHwithoutMaintenanceEdit" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="BrokerPCPwithoutMaintenance" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="BrokerPCHwithMaintenance" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="BrokerPCHwithoutMaintenance" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="BrokerBCHwithMaintenance" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="OutrightFLwithMaintenance" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="OutrightPCHwithoutMaintenance" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="OutrightFLwithoutMaintenance" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="OutrightPCHwithMaintenance" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="OutrightBCHwithoutMaintenance" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="OutrightBCHwithMaintenance" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="BrokerBCHwithoutMaintenance" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="audibrokerHPR" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="OutrightHPNRwithoutMaintenance" sheetId="31" state="visible" r:id="rId32"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="94">
   <si>
     <t xml:space="preserve">manufacurer</t>
   </si>
@@ -119,205 +121,214 @@
     <t xml:space="preserve">NO</t>
   </si>
   <si>
+    <t xml:space="preserve">Limited Credit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PersonalContractPurchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContractPurchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HirePurchaseRegulated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vehicleProfit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quoteRef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quoteExpiryDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milesperannum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contractMileage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cashDeposite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noOfMmonthlyPayments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthlyfinanceRental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optionalFinalPayment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthlyMaintenancePayment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optionToPurchaseFee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rflIncluded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">penceperExcessMileFinance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">penceperExcessMileMaintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partExchangeActual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partExchangeGiven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lessFinanceSettlement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REF001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula1-BCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">financeCharges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthlyfinancePayment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finalBallonPayment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vehicle_basic_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on_road_price_for_invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage_cap_residual_value_used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual_part_exchange_value_from_excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given_part_exchange_value_from_excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">less_finance_settlement_from_excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_deposit_from_excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document_fee_from_excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upsell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance_required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance_margin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initial_payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_exchange_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otrPriceForInvoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initialFinanceRental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentageOfSaleProceedsToCustomer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secondaryHirePeriodRental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LessFinanceSettlement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderDeposit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">documentFee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula1-FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initialMaintenanceRental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthlyMaintenaceRental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finalBalloonPayment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula1-PCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matrix_upsell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage_cap_maintenance_cost_used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">main_cost_used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milesPerAnnum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cashdeposite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthlyFinancePayment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">financeBallonPayment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commisionvalue</t>
+  </si>
+  <si>
     <t xml:space="preserve">A1 Credit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HirePurchaseRegulated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manufacturer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vehicleProfit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quoteRef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quoteExpiryDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">milesperannum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contractMileage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cashDeposite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noOfMmonthlyPayments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monthlyfinanceRental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optionalFinalPayment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monthlyMaintenancePayment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optionToPurchaseFee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rflIncluded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">penceperExcessMileFinance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">penceperExcessMileMaintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partExchangeActual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partExchangeGiven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lessFinanceSettlement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REF001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula1-BCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">financeCharges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monthlyfinancePayment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finalBallonPayment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vehicle_basic_price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">on_road_price_for_invoice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage_cap_residual_value_used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actual_part_exchange_value_from_excel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">given_part_exchange_value_from_excel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">less_finance_settlement_from_excel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order_deposit_from_excel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document_fee_from_excel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upsell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maintenance_required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maintenance_margin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">initial_payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part_exchange_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otrPriceForInvoice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">initialFinanceRental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentageOfSaleProceedsToCustomer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secondaryHirePeriodRental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LessFinanceSettlement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orderDeposit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">documentFee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula1-FL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">initialMaintenanceRental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monthlyMaintenaceRental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finalBalloonPayment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula1-PCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">additional_term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matrix_upsell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage_cap_maintenance_cost_used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">main_cost_used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">milesPerAnnum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cashdeposite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monthlyFinancePayment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">financeBallonPayment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commisionvalue</t>
   </si>
   <si>
     <t xml:space="preserve">HirePurchaseNonRegulated</t>
@@ -436,11 +447,11 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -538,7 +549,7 @@
       <c r="J2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="0" t="n">
@@ -585,92 +596,87 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -691,7 +697,7 @@
         <v>60000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>44959</v>
@@ -706,55 +712,46 @@
         <v>1000</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="L2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="M2" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>15</v>
-      </c>
       <c r="S2" s="1" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="V2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="W2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="X2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>75</v>
+      <c r="V2" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -767,68 +764,65 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="24.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="33.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -840,7 +834,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>44959</v>
@@ -855,34 +849,25 @@
         <v>1000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>400</v>
+        <v>2</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>75</v>
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -901,79 +886,92 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -994,7 +992,7 @@
         <v>60000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>44959</v>
@@ -1018,31 +1016,40 @@
         <v>400</v>
       </c>
       <c r="N2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="P2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="Q2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="T2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="U2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="V2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="T2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="1" t="n">
+      <c r="W2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="X2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>80</v>
+      <c r="Y2" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1061,78 +1068,68 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1143,62 +1140,56 @@
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>600</v>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44959</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>44959</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>2</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>2000</v>
+        <v>15</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1213,75 +1204,75 @@
   </sheetPr>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>19</v>
@@ -1304,7 +1295,7 @@
         <v>60000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>44959</v>
@@ -1352,7 +1343,7 @@
         <v>200</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1371,74 +1362,78 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1456,52 +1451,55 @@
         <v>600</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>20</v>
+        <v>60000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>44959</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>25000</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>44959</v>
+        <v>5000</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2000</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="n">
         <v>5000</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>1000</v>
       </c>
       <c r="O2" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>49</v>
+        <v>1000</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1514,78 +1512,79 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1606,7 +1605,7 @@
         <v>60000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>44959</v>
@@ -1621,37 +1620,46 @@
         <v>1000</v>
       </c>
       <c r="K2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="M2" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="N2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" s="1" t="n">
+      <c r="O2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="R2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="S2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="Q2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R2" s="1" t="n">
+      <c r="T2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>49</v>
+      <c r="V2" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1664,81 +1672,74 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1750,61 +1751,52 @@
         <v>21</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>25000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2" t="n">
         <v>44959</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="M2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>900</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="n">
+      <c r="N2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="1" t="n">
+      <c r="P2" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="Q2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="R2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>49</v>
+      <c r="R2" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1823,55 +1815,78 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1882,47 +1897,62 @@
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="C2" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>44959</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="I2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="n">
+      <c r="J2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="K2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="M2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1935,46 +1965,81 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1985,32 +2050,62 @@
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="C2" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>44959</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="F2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="G2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>1000</v>
-      </c>
       <c r="H2" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="L2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="P2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>80</v>
+      <c r="R2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2029,165 +2124,145 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>22000</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="T2" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>44959</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>900</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="V2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2203,50 +2278,50 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>19</v>
@@ -2260,7 +2335,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>44959</v>
@@ -2293,7 +2368,7 @@
         <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2312,80 +2387,46 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2396,65 +2437,38 @@
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44959</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>6000</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>199.99</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>75</v>
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2467,67 +2481,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2538,59 +2540,47 @@
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44959</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>6000</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>199.99</v>
+        <v>2</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2603,17 +2593,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2622,19 +2619,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>58</v>
+      <c r="H1" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>59</v>
@@ -2663,7 +2660,13 @@
       <c r="Q1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2684,43 +2687,49 @@
         <v>100</v>
       </c>
       <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="1" t="n">
+      <c r="L2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="n">
         <v>199.99</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="S2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>75</v>
+      <c r="T2" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2739,24 +2748,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2765,54 +2767,48 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>84</v>
+      <c r="G1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2833,49 +2829,43 @@
         <v>100</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>6000</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>199.99</v>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>0.2</v>
+      <c r="O2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2896,22 +2886,15 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="27.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2920,46 +2903,46 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>19</v>
@@ -3018,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3039,11 +3022,11 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -3054,7 +3037,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3063,52 +3046,52 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -3173,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3192,46 +3175,74 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3242,38 +3253,59 @@
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>44959</v>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="J2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>49</v>
+        <v>1000</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3286,62 +3318,81 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>89</v>
+      <c r="I1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3351,38 +3402,59 @@
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>44959</v>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>6000</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>200</v>
+      <c r="R2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3401,145 +3473,88 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
+      <c r="J2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>630</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>22000</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>199.99</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>90</v>
+      <c r="K2" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3552,88 +3567,213 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>22000</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3643,68 +3783,189 @@
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="2" t="n">
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="4" t="n">
         <v>44959</v>
       </c>
+      <c r="E2" s="1" t="n">
+        <v>12</v>
+      </c>
       <c r="F2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>900</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1" t="n">
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>22000</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P2" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="V2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>49</v>
+      <c r="Q2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3723,64 +3984,64 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>42</v>
@@ -3798,6 +4059,12 @@
         <v>46</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3812,7 +4079,7 @@
         <v>1200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44959</v>
@@ -3830,38 +4097,46 @@
         <v>900</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2000</v>
+      </c>
       <c r="L2" s="1" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>100</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="S2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="R2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="S2" s="1" t="n">
+      <c r="T2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U2" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="V2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>49</v>
+      <c r="W2" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3880,64 +4155,64 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>42</v>
@@ -3955,6 +4230,12 @@
         <v>46</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3969,7 +4250,7 @@
         <v>1200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44959</v>
@@ -3987,38 +4268,46 @@
         <v>900</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2000</v>
+      </c>
       <c r="L2" s="1" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>100</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="S2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="R2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="S2" s="1" t="n">
+      <c r="T2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U2" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="V2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>49</v>
+      <c r="W2" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4039,77 +4328,77 @@
   </sheetPr>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>19</v>
@@ -4126,7 +4415,7 @@
         <v>1200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44959</v>
@@ -4143,21 +4432,21 @@
       <c r="I2" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="n">
+      <c r="J2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
       <c r="M2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>2</v>
+      <c r="O2" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>1</v>
@@ -4175,13 +4464,13 @@
         <v>200</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4194,77 +4483,81 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>67</v>
+      <c r="N1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4276,55 +4569,59 @@
         <v>21</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>20000</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>6000</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>199.99</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1" t="n">
+      <c r="T2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>49</v>
+      <c r="U2" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4343,87 +4640,81 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4435,64 +4726,59 @@
         <v>21</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>44959</v>
       </c>
+      <c r="F2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>5000</v>
+      </c>
       <c r="H2" s="1" t="n">
-        <v>12</v>
+        <v>3000</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>1000</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="J2" s="1"/>
       <c r="K2" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="M2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>15</v>
-      </c>
       <c r="P2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Q2" s="1" t="n">
-        <v>5000</v>
-      </c>
       <c r="R2" s="1" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>75</v>
+      <c r="U2" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4511,65 +4797,77 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="24.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="33.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="27.69"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4580,47 +4878,62 @@
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>44959</v>
+      <c r="C2" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>600</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>12</v>
+        <v>60000</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="H2" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="K2" s="1" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>15</v>
+        <v>199.99</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>75</v>
+        <v>22</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -8,38 +8,39 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="OutrightHPNRwithMaintenance" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="OutrightPCPwithoutMaintenance" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="OutrightCPwithoutMaintenance" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="OutrightHPRwithoutMaintenance" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="BrokerCPwithMaintenance" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="BrokerPCPwithMaintenance" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="BrokerHPNR" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="BrokerHPR" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="BrokerCPwithoutMaintenance" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="OutrightBCHwithoutMaintenanceEd" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="BrokerFLwithoutMaintenanceEdit" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="BrokerFLwithoutMaintenance" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="BrokerFLwithMaintenanceEdit" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="BrokerFLwithMaintenance" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="BrokerPCHwithMaintenanceEdit" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="BrokerPCHwithoutMaintenanceEdit" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="BrokerBCHwithMaintenanceEdit" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="xyz" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="BrokerBCHwithoutMaintenanceEdit" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="BrokerPCPwithoutMaintenance" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="BrokerPCHwithMaintenance" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="BrokerPCHwithoutMaintenance" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="BrokerBCHwithMaintenance" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="OutrightFLwithMaintenance" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="OutrightPCHwithoutMaintenance" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="OutrightFLwithoutMaintenance" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="OutrightPCHwithMaintenance" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="OutrightBCHwithoutMaintenance" sheetId="28" state="visible" r:id="rId29"/>
-    <sheet name="OutrightBCHwithMaintenance" sheetId="29" state="visible" r:id="rId30"/>
-    <sheet name="BrokerBCHwithoutMaintenance" sheetId="30" state="visible" r:id="rId31"/>
-    <sheet name="audibrokerHPR" sheetId="31" state="visible" r:id="rId32"/>
-    <sheet name="OutrightHPNRwithoutMaintenance" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="OutrightHPRwithMaintenance" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="OutrightHPNRwithMaintenance" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="OutrightPCPwithoutMaintenance" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="OutrightCPwithoutMaintenance" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="OutrightHPRwithoutMaintenance" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="BrokerCPwithMaintenance" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="BrokerPCPwithMaintenance" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="BrokerHPNR" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="BrokerHPR" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="BrokerCPwithoutMaintenance" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="OutrightBCHwithoutMaintenanceEd" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="BrokerFLwithoutMaintenanceEdit" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="BrokerFLwithoutMaintenance" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="BrokerFLwithMaintenanceEdit" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="BrokerFLwithMaintenance" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="BrokerPCHwithMaintenanceEdit" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="BrokerPCHwithoutMaintenanceEdit" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="BrokerBCHwithMaintenanceEdit" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="xyz" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="BrokerBCHwithoutMaintenanceEdit" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="BrokerPCPwithoutMaintenance" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="BrokerPCHwithMaintenance" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="BrokerPCHwithoutMaintenance" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="BrokerBCHwithMaintenance" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="OutrightFLwithMaintenance" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="OutrightPCHwithoutMaintenance" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="OutrightFLwithoutMaintenance" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="OutrightPCHwithMaintenance" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="OutrightBCHwithoutMaintenance" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="OutrightBCHwithMaintenance" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="BrokerBCHwithoutMaintenance" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="audibrokerHPR" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="OutrightHPNRwithoutMaintenance" sheetId="33" state="visible" r:id="rId34"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="97">
   <si>
     <t xml:space="preserve">manufacurer</t>
   </si>
@@ -134,6 +135,9 @@
     <t xml:space="preserve">A1 Credit</t>
   </si>
   <si>
+    <t xml:space="preserve">HirePurchaseRegulated</t>
+  </si>
+  <si>
     <t xml:space="preserve">HirePurchaseNonRegulated</t>
   </si>
   <si>
@@ -147,9 +151,6 @@
   </si>
   <si>
     <t xml:space="preserve">ContractPurchase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HirePurchaseRegulated</t>
   </si>
   <si>
     <t xml:space="preserve">manufacturer </t>
@@ -467,11 +468,11 @@
   </sheetPr>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -635,77 +636,81 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="2" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>74</v>
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -717,54 +722,58 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>60000</v>
+        <v>1200</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>44959</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>6000</v>
-      </c>
-      <c r="J2" s="2" t="n">
+        <v>900</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="K2" s="2" t="n">
-        <v>1000</v>
-      </c>
       <c r="L2" s="2" t="n">
-        <v>199.99</v>
+        <v>1000</v>
       </c>
       <c r="M2" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>28</v>
+      <c r="N2" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T2" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -784,25 +793,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="2" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="27.69"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -814,57 +822,48 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>52</v>
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -884,56 +883,47 @@
       <c r="E2" s="2" t="n">
         <v>60000</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>44959</v>
+      <c r="F2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>20000</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>12</v>
+        <v>10000</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>10</v>
+        <v>199.99</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>5000</v>
+        <v>200</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -952,13 +942,181 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.6"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>44959</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.82"/>
@@ -1055,188 +1213,6 @@
         <v>5</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Y2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>44959</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y2" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1256,16 +1232,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1276,48 +1252,72 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1328,49 +1328,73 @@
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="G2" s="3" t="n">
         <v>44959</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="H2" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="I2" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="J2" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="L2" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="M2" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="O2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="P2" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="Q2" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="R2" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="S2" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1390,13 +1414,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -1406,63 +1434,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1473,65 +1486,50 @@
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>600</v>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>44959</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>44959</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>1000</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P2" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="Q2" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>87</v>
+      <c r="Q2" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1550,13 +1548,173 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>44959</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -1695,7 +1853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1706,7 +1864,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -1841,149 +1999,6 @@
         <v>200</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:R2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>25000</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>44959</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2003,20 +2018,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2033,48 +2047,45 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="S1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2092,55 +2103,52 @@
         <v>600</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>25000</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="K2" s="3" t="n">
         <v>44959</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="L2" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="M2" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>5</v>
-      </c>
       <c r="N2" s="2" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="O2" s="2" t="n">
         <v>2000</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="S2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2153,15 +2161,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2181,56 +2190,65 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -2239,53 +2257,62 @@
       <c r="D2" s="0" t="n">
         <v>630</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="E2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>20000</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>22000</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J2" s="0" t="s">
+      <c r="L2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="W2" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>199.99</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2304,17 +2331,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2325,60 +2355,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2390,67 +2414,61 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="G2" s="3" t="n">
         <v>44959</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="H2" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="I2" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>900</v>
-      </c>
       <c r="J2" s="2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>2000</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="M2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P2" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="Q2" s="2" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T2" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2463,13 +2481,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -2479,39 +2502,60 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2522,41 +2566,62 @@
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="E2" s="3" t="n">
         <v>44959</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="F2" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="G2" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>1000</v>
-      </c>
       <c r="H2" s="2" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="I2" s="2" t="n">
+        <v>900</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="K2" s="2" t="n">
+      <c r="L2" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="L2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>87</v>
+      <c r="P2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2575,13 +2640,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -2606,15 +2671,24 @@
         <v>76</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2641,15 +2715,24 @@
         <v>1000</v>
       </c>
       <c r="H2" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="J2" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="K2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2669,13 +2752,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -2700,24 +2783,15 @@
         <v>76</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2744,25 +2818,16 @@
         <v>1000</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>56</v>
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2781,80 +2846,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="25.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2865,65 +2905,47 @@
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>44959</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>6000</v>
+        <v>400</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>199.99</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2936,13 +2958,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="25.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -2961,42 +2990,48 @@
         <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3017,43 +3052,49 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="J2" s="2" t="n">
         <v>6000</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="K2" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="2" t="n">
+      <c r="L2" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="2" t="n">
         <v>199.99</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="N2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="2" t="n">
+      <c r="R2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>87</v>
+      <c r="T2" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3074,11 +3115,11 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -3174,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" s="2" t="n">
         <v>0</v>
@@ -3183,13 +3224,13 @@
         <v>200</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3208,20 +3249,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="25.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -3240,48 +3274,42 @@
         <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>91</v>
+      <c r="G1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3302,49 +3330,43 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="L2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>6000</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>199.99</v>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="N2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>0.2</v>
+      <c r="O2" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3363,18 +3385,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="25.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.52"/>
   </cols>
   <sheetData>
@@ -3395,42 +3417,48 @@
         <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3451,43 +3479,49 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="J2" s="2" t="n">
         <v>6000</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="K2" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="2" t="n">
+      <c r="L2" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="2" t="n">
         <v>199.99</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="N2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="2" t="n">
+      <c r="R2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>56</v>
+      <c r="T2" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3506,18 +3540,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="25.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="27.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.52"/>
   </cols>
   <sheetData>
@@ -3538,48 +3572,42 @@
         <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>91</v>
+      <c r="G1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3600,48 +3628,42 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="L2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>6000</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>199.99</v>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="N2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>0.2</v>
+      <c r="O2" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3663,11 +3685,11 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -3763,10 +3785,10 @@
         <v>1000</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>100</v>
@@ -3812,46 +3834,80 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="25.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.52"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3862,38 +3918,65 @@
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>44959</v>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="K2" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3906,13 +3989,107 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>44959</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="14.35"/>
@@ -4016,7 +4193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4027,7 +4204,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -4123,7 +4300,7 @@
         <v>1000</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>26</v>
@@ -4153,7 +4330,7 @@
         <v>199.99</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4174,11 +4351,11 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -4274,10 +4451,10 @@
         <v>1000</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>100</v>
@@ -4323,165 +4500,145 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>44959</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>900</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="n">
+      <c r="C2" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>22000</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="2" t="n">
+      <c r="O2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P2" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="N2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>56</v>
+      <c r="Q2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4496,11 +4653,11 @@
   </sheetPr>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -4607,7 +4764,7 @@
         <v>900</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>2000</v>
@@ -4652,7 +4809,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4665,17 +4822,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4707,16 +4864,16 @@
         <v>40</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>45</v>
@@ -4725,21 +4882,27 @@
         <v>46</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4772,14 +4935,16 @@
         <v>900</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>2000</v>
+      </c>
       <c r="L2" s="2" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N2" s="2" t="n">
         <v>100</v>
@@ -4788,28 +4953,34 @@
         <v>55</v>
       </c>
       <c r="P2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="S2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="R2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="S2" s="2" t="n">
+      <c r="T2" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U2" s="2" t="n">
         <v>600</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="V2" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4825,10 +4996,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -4966,7 +5137,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4981,13 +5152,13 @@
   </sheetPr>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
   </cols>
@@ -5021,22 +5192,22 @@
         <v>40</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>49</v>
@@ -5085,21 +5256,21 @@
       <c r="I2" s="2" t="n">
         <v>900</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="n">
+      <c r="J2" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="2" t="n">
-        <v>1000</v>
-      </c>
       <c r="M2" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>2</v>
       </c>
       <c r="P2" s="2" t="n">
         <v>1</v>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -8,39 +8,41 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="OutrightHPRwithMaintenance" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="OutrightHPNRwithMaintenance" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="OutrightPCPwithoutMaintenance" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="OutrightCPwithoutMaintenance" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="OutrightHPRwithoutMaintenance" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="BrokerCPwithMaintenance" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="BrokerPCPwithMaintenance" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="BrokerHPNR" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="BrokerHPR" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="BrokerCPwithoutMaintenance" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="OutrightBCHwithoutMaintenanceEd" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="BrokerFLwithoutMaintenanceEdit" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="BrokerFLwithoutMaintenance" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="BrokerFLwithMaintenanceEdit" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="BrokerFLwithMaintenance" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="BrokerPCHwithMaintenanceEdit" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="BrokerPCHwithoutMaintenanceEdit" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="BrokerBCHwithMaintenanceEdit" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="xyz" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="BrokerBCHwithoutMaintenanceEdit" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="BrokerPCPwithoutMaintenance" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="BrokerPCHwithMaintenance" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="BrokerPCHwithoutMaintenance" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="BrokerBCHwithMaintenance" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="OutrightFLwithMaintenance" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="OutrightPCHwithoutMaintenance" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="OutrightFLwithoutMaintenance" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="OutrightPCHwithMaintenance" sheetId="28" state="visible" r:id="rId29"/>
-    <sheet name="OutrightBCHwithoutMaintenance" sheetId="29" state="visible" r:id="rId30"/>
-    <sheet name="OutrightBCHwithMaintenance" sheetId="30" state="visible" r:id="rId31"/>
-    <sheet name="BrokerBCHwithoutMaintenance" sheetId="31" state="visible" r:id="rId32"/>
-    <sheet name="audibrokerHPR" sheetId="32" state="visible" r:id="rId33"/>
-    <sheet name="OutrightHPNRwithoutMaintenance" sheetId="33" state="visible" r:id="rId34"/>
+    <sheet name="OutrightPCPwithMaintenance" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="OutrightCPwithMaintenance" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="OutrightHPRwithMaintenance" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="OutrightHPNRwithMaintenance" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="OutrightPCPwithoutMaintenance" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="OutrightCPwithoutMaintenance" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="OutrightHPRwithoutMaintenance" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="BrokerCPwithMaintenance" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="BrokerPCPwithMaintenance" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="BrokerHPNR" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="BrokerHPR" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="BrokerCPwithoutMaintenance" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="OutrightBCHwithoutMaintenanceEd" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="BrokerFLwithoutMaintenanceEdit" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="BrokerFLwithoutMaintenance" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="BrokerFLwithMaintenanceEdit" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="BrokerFLwithMaintenance" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="BrokerPCHwithMaintenanceEdit" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="BrokerPCHwithoutMaintenanceEdit" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="BrokerBCHwithMaintenanceEdit" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="xyz" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="BrokerBCHwithoutMaintenanceEdit" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="BrokerPCPwithoutMaintenance" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="BrokerPCHwithMaintenance" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="BrokerPCHwithoutMaintenance" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="BrokerBCHwithMaintenance" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="OutrightFLwithMaintenance" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="OutrightPCHwithoutMaintenance" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="OutrightFLwithoutMaintenance" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="OutrightPCHwithMaintenance" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="OutrightBCHwithoutMaintenance" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="OutrightBCHwithMaintenance" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="BrokerBCHwithoutMaintenance" sheetId="33" state="visible" r:id="rId34"/>
+    <sheet name="audibrokerHPR" sheetId="34" state="visible" r:id="rId35"/>
+    <sheet name="OutrightHPNRwithoutMaintenance" sheetId="35" state="visible" r:id="rId36"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -51,8 +53,56 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="P2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">No  impact of this cell for calculation inside for this contract type
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="P2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">No  impact of this cell for calculation inside for this contract type
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="97">
   <si>
     <t xml:space="preserve">manufacurer</t>
   </si>
@@ -135,6 +185,12 @@
     <t xml:space="preserve">A1 Credit</t>
   </si>
   <si>
+    <t xml:space="preserve">PersonalContractPurchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContractPurchase</t>
+  </si>
+  <si>
     <t xml:space="preserve">HirePurchaseRegulated</t>
   </si>
   <si>
@@ -145,12 +201,6 @@
   </si>
   <si>
     <t xml:space="preserve">Limited Credit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PersonalContractPurchase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContractPurchase</t>
   </si>
   <si>
     <t xml:space="preserve">manufacturer </t>
@@ -376,7 +426,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +437,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -424,12 +480,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -469,10 +529,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -595,7 +655,7 @@
       <c r="O2" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="Q2" s="1" t="n">
@@ -608,10 +668,10 @@
         <v>500</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="V2" s="1" t="n">
         <v>199.99</v>
@@ -628,6 +688,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -638,149 +699,149 @@
   </sheetPr>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4" t="n">
         <v>44959</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>5000</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="3" t="n">
         <v>3000</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>900</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="n">
+      <c r="J2" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="R2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="S2" s="2" t="n">
+      <c r="R2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -793,136 +854,144 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="2" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="C2" s="3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>44959</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>900</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>20000</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>6000</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>199.99</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -942,156 +1011,145 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="T1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="C2" s="3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>44959</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>900</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>44959</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>82</v>
+      <c r="U2" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1110,13 +1168,330 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="3" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="27.69"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.6"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>44959</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.82"/>
@@ -1129,406 +1504,90 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>44959</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>5000</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="G2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Y2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>44959</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>44959</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1548,148 +1607,170 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>50000</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>60000</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <v>44959</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>5000</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="2" t="n">
+      <c r="J2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="N2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="Q2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="S2" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>5000</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="U2" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="T2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="2" t="n">
+      <c r="W2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="X2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>87</v>
+      <c r="Y2" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1708,144 +1789,128 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>44959</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>44959</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>56</v>
+      <c r="N2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1860,146 +1925,146 @@
   </sheetPr>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>50000</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>60000</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <v>44959</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>5000</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="2" t="n">
+      <c r="J2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="N2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="3" t="n">
         <v>5000</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="S2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="T2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="2" t="n">
+      <c r="T2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>56</v>
+      <c r="V2" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2018,137 +2083,144 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="N1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>50000</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>25000</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="E2" s="3" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="G2" s="4" t="n">
+        <v>44959</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>1000</v>
+      </c>
       <c r="K2" s="3" t="n">
-        <v>44959</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="M2" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" s="3" t="n">
         <v>5000</v>
       </c>
-      <c r="N2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="P2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="P2" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2163,11 +2235,11 @@
   </sheetPr>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -2290,7 +2362,7 @@
       <c r="O2" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="Q2" s="1" t="n">
@@ -2323,6 +2395,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2331,144 +2404,154 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>50000</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>60000</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <v>44959</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>5000</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="2" t="n">
+      <c r="J2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="M2" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="N2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" s="2" t="n">
+      <c r="O2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="3" t="n">
         <v>5000</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="R2" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="S2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="Q2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R2" s="2" t="n">
+      <c r="T2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="V2" s="3" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2481,146 +2564,130 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>25000</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="K2" s="4" t="n">
         <v>44959</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="L2" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="M2" s="3" t="n">
         <v>5000</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>900</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="n">
+      <c r="N2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O2" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="R2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2640,106 +2707,144 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.6"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <v>44959</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="H2" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>5000</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="n">
+      <c r="J2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="K2" s="2" t="n">
+      <c r="L2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="L2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>87</v>
+      <c r="M2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2752,82 +2857,147 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="P1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="R1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="E2" s="4" t="n">
         <v>44959</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>5000</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>900</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="L2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="P2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>87</v>
+      <c r="R2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2849,97 +3019,97 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>44959</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>5000</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="G2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>56</v>
+      <c r="N2" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2958,149 +3128,88 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="25.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>20000</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>6000</v>
-      </c>
-      <c r="K2" s="2" t="n">
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>44959</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>199.99</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>82</v>
+      <c r="I2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3113,130 +3222,106 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>44959</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>6000</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>199.99</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>87</v>
+      <c r="M2" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3249,123 +3334,142 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="3" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="25.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="3" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="3" t="n">
         <v>20000</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="J2" s="3" t="n">
         <v>6000</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="K2" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="2" t="n">
+      <c r="L2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="3" t="n">
         <v>199.99</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="2" t="n">
+      <c r="O2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3385,142 +3489,123 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="25.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="G2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>20000</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="G2" s="3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="L2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>6000</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>199.99</v>
-      </c>
-      <c r="N2" s="2" t="n">
+      <c r="M2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q2" s="2" t="n">
+      <c r="O2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="2" t="n">
+      <c r="P2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3542,129 +3627,122 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="27.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>20000</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="3" t="n">
         <v>6000</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="2" t="n">
+      <c r="J2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="3" t="n">
         <v>199.99</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="2" t="n">
+      <c r="M2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="2" t="n">
+      <c r="P2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>56</v>
+      <c r="R2" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3683,15 +3761,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3711,56 +3790,65 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -3769,53 +3857,62 @@
       <c r="D2" s="0" t="n">
         <v>630</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="E2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>20000</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>22000</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J2" s="0" t="s">
+      <c r="L2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="W2" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>199.99</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3836,141 +3933,141 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="25.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="3" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="25.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="3" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>20000</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="3" t="n">
         <v>6000</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="2" t="n">
+      <c r="L2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="3" t="n">
         <v>199.99</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="N2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="2" t="n">
+      <c r="R2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>56</v>
+      <c r="T2" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3989,88 +4086,137 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="3" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="3" width="11.52"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
+      <c r="C2" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>44959</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I2" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4083,103 +4229,143 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="19.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="3" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="25.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="3" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>96</v>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>44959</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="C2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>200</v>
+      <c r="R2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4198,13 +4384,222 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>44959</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="14.62"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>44959</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -4300,7 +4695,7 @@
         <v>1000</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>26</v>
@@ -4330,7 +4725,7 @@
         <v>199.99</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4349,15 +4744,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4377,56 +4773,65 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -4435,53 +4840,62 @@
       <c r="D2" s="0" t="n">
         <v>630</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="W2" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>22000</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>199.99</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4502,11 +4916,11 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -4602,10 +5016,10 @@
         <v>1000</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>100</v>
@@ -4651,165 +5065,145 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>44959</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>900</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="n">
+      <c r="C2" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>22000</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="2" t="n">
+      <c r="O2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P2" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="N2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>56</v>
+      <c r="Q2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4822,159 +5216,139 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>44959</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>900</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" s="2" t="n">
+      <c r="C2" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>22000</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="2" t="n">
+      <c r="O2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P2" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="N2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>56</v>
+      <c r="Q2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4993,144 +5367,158 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="K1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4" t="n">
         <v>44959</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>5000</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="3" t="n">
         <v>3000</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>900</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="n">
+      <c r="J2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="M2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="N2" s="2" t="n">
+      <c r="L2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="N2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="S2" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="R2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="S2" s="2" t="n">
+      <c r="T2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U2" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5150,144 +5538,158 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="K1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4" t="n">
         <v>44959</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>5000</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="3" t="n">
         <v>3000</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>900</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="n">
+      <c r="J2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="M2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="N2" s="2" t="n">
+      <c r="L2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="N2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="S2" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="R2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="S2" s="2" t="n">
+      <c r="T2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U2" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="3" t="s">
         <v>56</v>
       </c>
     </row>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FL_BCHwithoutMaintenance" sheetId="1" state="visible" r:id="rId2"/>
@@ -702,7 +702,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="24.45"/>
@@ -846,7 +846,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -997,7 +997,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1133,7 +1133,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -1288,7 +1288,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -1431,7 +1431,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -1586,7 +1586,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -1757,7 +1757,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -1908,7 +1908,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -2079,7 +2079,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -2230,7 +2230,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -2377,11 +2377,11 @@
   </sheetPr>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -2541,7 +2541,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -2711,7 +2711,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -2862,7 +2862,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -3032,7 +3032,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3168,7 +3168,7 @@
       <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -3323,7 +3323,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -3478,7 +3478,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -3621,7 +3621,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -3776,7 +3776,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -3919,7 +3919,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -4074,7 +4074,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -4246,7 +4246,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -4401,7 +4401,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -4556,7 +4556,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="24.45"/>
@@ -4700,7 +4700,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="24.45"/>
@@ -4844,7 +4844,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -5014,7 +5014,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -5165,7 +5165,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5301,7 +5301,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -5472,7 +5472,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -5643,7 +5643,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -5813,7 +5813,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -5985,7 +5985,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -6155,7 +6155,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -6306,7 +6306,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -6457,7 +6457,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -6628,7 +6628,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -6799,7 +6799,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -6956,7 +6956,7 @@
       <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -7113,7 +7113,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -7270,7 +7270,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="24.45"/>
@@ -7419,7 +7419,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -7583,11 +7583,11 @@
   </sheetPr>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -7747,7 +7747,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.27"/>
@@ -7868,7 +7868,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
@@ -8050,7 +8050,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
@@ -8184,7 +8184,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8344,7 +8344,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -8494,7 +8494,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8654,7 +8654,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -8797,7 +8797,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -8947,7 +8947,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -9106,7 +9106,7 @@
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9218,7 +9218,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -9369,7 +9369,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9463,7 +9463,7 @@
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9575,7 +9575,7 @@
       <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -9730,7 +9730,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9866,7 +9866,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10002,7 +10002,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -10157,7 +10157,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -10300,7 +10300,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -10455,7 +10455,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10549,7 +10549,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -10664,7 +10664,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -10835,7 +10835,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -10986,7 +10986,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -11157,7 +11157,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FL_BCHwithoutMaintenance" sheetId="1" state="visible" r:id="rId2"/>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="109">
   <si>
     <t xml:space="preserve">manufacturer</t>
   </si>
@@ -335,9 +335,6 @@
   </si>
   <si>
     <t xml:space="preserve">penceperExcessMileMaintenance, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCH (Formula 3) - BCH </t>
   </si>
   <si>
     <t xml:space="preserve">BCH (Formula 3) - BCH</t>
@@ -702,7 +699,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="24.45"/>
@@ -846,68 +843,68 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="T1" s="0" t="s">
         <v>17</v>
@@ -945,7 +942,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>100</v>
@@ -972,7 +969,7 @@
         <v>199.99</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -997,7 +994,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1010,7 +1007,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1108,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1133,7 +1130,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -1153,19 +1150,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1263,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +1285,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -1308,7 +1305,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1431,7 +1428,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -1451,19 +1448,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1586,7 +1583,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -1594,70 +1591,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="J1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="W1" s="0" t="s">
         <v>17</v>
@@ -1704,7 +1701,7 @@
         <v>30</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -1731,7 +1728,7 @@
         <v>199.99</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1757,68 +1754,68 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="T1" s="0" t="s">
         <v>17</v>
@@ -1856,7 +1853,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>100</v>
@@ -1883,7 +1880,7 @@
         <v>199.99</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1908,7 +1905,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -1916,70 +1913,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="J1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="W1" s="0" t="s">
         <v>17</v>
@@ -2026,7 +2023,7 @@
         <v>30</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -2053,7 +2050,7 @@
         <v>199.99</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2079,68 +2076,68 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="T1" s="0" t="s">
         <v>17</v>
@@ -2178,7 +2175,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>100</v>
@@ -2205,7 +2202,7 @@
         <v>199.99</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2230,68 +2227,68 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="T1" s="0" t="s">
         <v>17</v>
@@ -2329,7 +2326,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>100</v>
@@ -2356,7 +2353,7 @@
         <v>199.99</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2377,11 +2374,11 @@
   </sheetPr>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -2541,7 +2538,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -2549,70 +2546,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="J1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="W1" s="0" t="s">
         <v>17</v>
@@ -2659,7 +2656,7 @@
         <v>30</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -2686,7 +2683,7 @@
         <v>199.99</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2711,68 +2708,68 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="T1" s="0" t="s">
         <v>17</v>
@@ -2810,7 +2807,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>100</v>
@@ -2837,7 +2834,7 @@
         <v>199.99</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2862,7 +2859,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -2870,70 +2867,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="J1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="W1" s="0" t="s">
         <v>17</v>
@@ -2980,7 +2977,7 @@
         <v>30</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -3007,7 +3004,7 @@
         <v>199.99</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3032,7 +3029,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3045,7 +3042,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -3143,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3168,7 +3165,7 @@
       <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -3188,19 +3185,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -3298,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3323,7 +3320,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -3343,19 +3340,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -3453,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3478,7 +3475,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -3498,7 +3495,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -3596,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3621,7 +3618,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -3641,19 +3638,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -3776,7 +3773,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -3796,7 +3793,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -3919,7 +3916,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -3939,19 +3936,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -4049,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4070,11 +4067,11 @@
   </sheetPr>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -4209,13 +4206,13 @@
         <v>30</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T2" s="1" t="n">
         <v>200</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="V2" s="1" t="n">
         <v>0</v>
@@ -4246,7 +4243,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -4266,19 +4263,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -4376,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4401,7 +4398,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -4421,19 +4418,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -4556,7 +4553,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="24.45"/>
@@ -4675,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4700,7 +4697,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="24.45"/>
@@ -4819,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4844,7 +4841,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -4852,70 +4849,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="J1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="W1" s="0" t="s">
         <v>17</v>
@@ -4962,7 +4959,7 @@
         <v>30</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -4989,7 +4986,7 @@
         <v>199.99</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -5014,68 +5011,68 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="T1" s="0" t="s">
         <v>17</v>
@@ -5113,7 +5110,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>100</v>
@@ -5140,7 +5137,7 @@
         <v>199.99</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -5165,7 +5162,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5178,7 +5175,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -5276,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5301,7 +5298,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -5309,70 +5306,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="J1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="W1" s="0" t="s">
         <v>17</v>
@@ -5419,7 +5416,7 @@
         <v>30</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -5446,7 +5443,7 @@
         <v>199.99</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5472,7 +5469,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -5480,70 +5477,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="J1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="W1" s="0" t="s">
         <v>17</v>
@@ -5590,7 +5587,7 @@
         <v>30</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -5617,7 +5614,7 @@
         <v>199.99</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5643,7 +5640,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -5651,70 +5648,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="J1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="W1" s="0" t="s">
         <v>17</v>
@@ -5761,7 +5758,7 @@
         <v>30</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -5788,7 +5785,7 @@
         <v>199.99</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -5809,11 +5806,11 @@
   </sheetPr>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -5948,13 +5945,13 @@
         <v>30</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T2" s="1" t="n">
         <v>200</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="V2" s="1" t="n">
         <v>0</v>
@@ -5985,7 +5982,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -5993,70 +5990,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="J1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="W1" s="0" t="s">
         <v>17</v>
@@ -6103,7 +6100,7 @@
         <v>30</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -6130,7 +6127,7 @@
         <v>199.99</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -6155,68 +6152,68 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="T1" s="0" t="s">
         <v>17</v>
@@ -6254,7 +6251,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>100</v>
@@ -6281,7 +6278,7 @@
         <v>199.99</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -6306,68 +6303,68 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="T1" s="0" t="s">
         <v>17</v>
@@ -6405,7 +6402,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>100</v>
@@ -6432,7 +6429,7 @@
         <v>199.99</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -6457,7 +6454,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -6466,70 +6463,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>17</v>
@@ -6546,7 +6543,7 @@
         <v>1200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>44959</v>
@@ -6579,7 +6576,7 @@
         <v>100</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>2</v>
@@ -6628,7 +6625,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -6637,70 +6634,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>17</v>
@@ -6717,7 +6714,7 @@
         <v>1200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>44959</v>
@@ -6750,7 +6747,7 @@
         <v>100</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>2</v>
@@ -6799,7 +6796,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -6808,64 +6805,64 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
@@ -6882,7 +6879,7 @@
         <v>1200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>44959</v>
@@ -6913,7 +6910,7 @@
         <v>100</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>1</v>
@@ -6956,7 +6953,7 @@
       <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -6965,64 +6962,64 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
@@ -7039,7 +7036,7 @@
         <v>1200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>44959</v>
@@ -7070,7 +7067,7 @@
         <v>100</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>1</v>
@@ -7113,7 +7110,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -7122,64 +7119,64 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
@@ -7196,7 +7193,7 @@
         <v>1200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>44959</v>
@@ -7224,7 +7221,7 @@
         <v>100</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O2" s="1" t="n">
         <v>2</v>
@@ -7270,7 +7267,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="24.45"/>
@@ -7293,7 +7290,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -7419,7 +7416,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -7431,7 +7428,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -7443,55 +7440,55 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>17</v>
@@ -7514,7 +7511,7 @@
         <v>60000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>44959</v>
@@ -7562,7 +7559,7 @@
         <v>200</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -7587,7 +7584,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -7722,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -7747,7 +7744,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.27"/>
@@ -7760,43 +7757,43 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>17</v>
@@ -7810,7 +7807,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>44959</v>
@@ -7843,7 +7840,7 @@
         <v>5</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -7868,7 +7865,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
@@ -7876,7 +7873,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -7888,64 +7885,64 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>17</v>
@@ -7968,7 +7965,7 @@
         <v>60000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>44959</v>
@@ -8025,7 +8022,7 @@
         <v>200</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -8050,7 +8047,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
@@ -8058,52 +8055,52 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>17</v>
@@ -8117,7 +8114,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>44959</v>
@@ -8159,7 +8156,7 @@
         <v>20</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -8184,11 +8181,11 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -8200,55 +8197,55 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="S1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>17</v>
@@ -8271,7 +8268,7 @@
         <v>60000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>44959</v>
@@ -8319,7 +8316,7 @@
         <v>200</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -8344,7 +8341,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -8356,7 +8353,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -8368,46 +8365,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>17</v>
@@ -8430,7 +8427,7 @@
         <v>60000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>44959</v>
@@ -8494,11 +8491,11 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -8510,55 +8507,55 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="S1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>17</v>
@@ -8581,7 +8578,7 @@
         <v>60000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>44959</v>
@@ -8654,7 +8651,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -8665,7 +8662,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -8677,43 +8674,43 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
@@ -8748,7 +8745,7 @@
         <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K2" s="3" t="n">
         <v>44959</v>
@@ -8797,7 +8794,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -8809,7 +8806,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -8821,46 +8818,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>17</v>
@@ -8883,7 +8880,7 @@
         <v>60000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>44959</v>
@@ -8947,7 +8944,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -8956,64 +8953,64 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
@@ -9030,7 +9027,7 @@
         <v>1200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>44959</v>
@@ -9060,7 +9057,7 @@
         <v>100</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O2" s="1" t="n">
         <v>2</v>
@@ -9106,47 +9103,47 @@
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>17</v>
@@ -9160,7 +9157,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>44959</v>
@@ -9193,7 +9190,7 @@
         <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -9218,68 +9215,68 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="T1" s="0" t="s">
         <v>17</v>
@@ -9317,7 +9314,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>100</v>
@@ -9344,7 +9341,7 @@
         <v>199.99</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -9369,38 +9366,38 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>17</v>
@@ -9414,7 +9411,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>44959</v>
@@ -9438,7 +9435,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -9463,47 +9460,47 @@
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>17</v>
@@ -9517,7 +9514,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>44959</v>
@@ -9575,7 +9572,7 @@
       <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -9595,19 +9592,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -9705,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -9730,7 +9727,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9743,7 +9740,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -9841,7 +9838,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -9866,7 +9863,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9879,7 +9876,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -9977,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -10002,7 +9999,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -10022,19 +10019,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -10132,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -10157,7 +10154,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -10177,7 +10174,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -10300,7 +10297,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -10320,19 +10317,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -10455,38 +10452,38 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>17</v>
@@ -10500,7 +10497,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>44959</v>
@@ -10549,7 +10546,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -10568,37 +10565,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10609,7 +10606,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>44959</v>
@@ -10664,7 +10661,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -10672,70 +10669,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="J1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="W1" s="0" t="s">
         <v>17</v>
@@ -10782,7 +10779,7 @@
         <v>30</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -10809,7 +10806,7 @@
         <v>199.99</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -10835,68 +10832,68 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="T1" s="0" t="s">
         <v>17</v>
@@ -10934,7 +10931,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>100</v>
@@ -10961,7 +10958,7 @@
         <v>199.99</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -10986,7 +10983,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -10994,70 +10991,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="J1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="W1" s="0" t="s">
         <v>17</v>
@@ -11104,7 +11101,7 @@
         <v>30</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -11131,7 +11128,7 @@
         <v>199.99</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -11157,68 +11154,68 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="T1" s="0" t="s">
         <v>17</v>
@@ -11256,7 +11253,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>100</v>
@@ -11283,7 +11280,7 @@
         <v>199.99</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="FL_FL_funder_withoutMaintenanc" sheetId="1" state="visible" r:id="rId2"/>
@@ -719,11 +719,11 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="1" width="24.45"/>
@@ -913,7 +913,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -1084,7 +1084,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -1255,7 +1255,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -1406,7 +1406,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -1557,7 +1557,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1693,7 +1693,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -1848,7 +1848,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -1991,7 +1991,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -2146,7 +2146,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -2317,7 +2317,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -2468,7 +2468,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="1" width="24.45"/>
@@ -2658,7 +2658,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -2829,7 +2829,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -2980,7 +2980,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -3131,7 +3131,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -3301,7 +3301,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -3452,7 +3452,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -3622,7 +3622,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3758,7 +3758,7 @@
       <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -3913,7 +3913,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -4068,7 +4068,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -4211,7 +4211,7 @@
       <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="1" width="24.45"/>
@@ -4401,7 +4401,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -4556,7 +4556,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -4699,7 +4699,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -4854,7 +4854,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -5009,7 +5009,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -5164,7 +5164,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="24.45"/>
@@ -5308,7 +5308,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="24.45"/>
@@ -5452,7 +5452,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -5622,7 +5622,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -5773,7 +5773,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5909,7 +5909,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="24.45"/>
@@ -6053,7 +6053,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -6224,7 +6224,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -6395,7 +6395,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -6565,7 +6565,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -6735,7 +6735,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -6886,7 +6886,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -7037,7 +7037,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -7208,7 +7208,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -7379,7 +7379,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -7536,7 +7536,7 @@
       <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -7689,11 +7689,11 @@
   </sheetPr>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -7807,7 +7807,7 @@
         <v>1000</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>199.99</v>
+        <v>239.99</v>
       </c>
       <c r="O2" s="1" t="n">
         <v>0</v>
@@ -7853,7 +7853,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -8010,7 +8010,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="24.45"/>
@@ -8159,7 +8159,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -8327,7 +8327,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.27"/>
@@ -8448,7 +8448,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
@@ -8630,7 +8630,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
@@ -8764,7 +8764,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8924,7 +8924,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -9074,7 +9074,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9234,7 +9234,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -9374,10 +9374,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -9503,7 +9503,7 @@
         <v>1000</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>199.99</v>
+        <v>239.99</v>
       </c>
       <c r="Q2" s="1" t="n">
         <v>0</v>
@@ -9549,7 +9549,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -9699,7 +9699,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -9858,7 +9858,7 @@
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9970,7 +9970,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10064,7 +10064,7 @@
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10176,7 +10176,7 @@
       <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -10331,7 +10331,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10467,7 +10467,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10603,7 +10603,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -10758,7 +10758,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -10897,11 +10897,11 @@
   </sheetPr>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -11073,7 +11073,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -11228,7 +11228,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -11322,11 +11322,11 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.08"/>
@@ -11437,7 +11437,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -11588,7 +11588,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -11748,7 +11748,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="OP_OP" sheetId="1" state="visible" r:id="rId2"/>
@@ -824,11 +824,11 @@
   </sheetPr>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -999,7 +999,7 @@
       <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="3" width="24.45"/>
@@ -1177,7 +1177,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -1328,7 +1328,7 @@
       <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="3" width="24.45"/>
@@ -1524,7 +1524,7 @@
       <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="3" width="24.45"/>
@@ -1720,7 +1720,7 @@
       <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="3" width="24.45"/>
@@ -1916,7 +1916,7 @@
       <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="3" width="24.45"/>
@@ -2112,7 +2112,7 @@
       <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="3" width="24.45"/>
@@ -2308,7 +2308,7 @@
       <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="3" width="24.45"/>
@@ -2504,7 +2504,7 @@
       <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="3" width="24.45"/>
@@ -2700,7 +2700,7 @@
       <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="3" width="24.45"/>
@@ -2896,7 +2896,7 @@
       <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="3" width="24.45"/>
@@ -3074,7 +3074,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="3" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="19.31"/>
@@ -3229,7 +3229,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="3" width="24.45"/>
@@ -3407,7 +3407,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="3" width="24.45"/>
@@ -3585,7 +3585,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="3" width="24.45"/>
@@ -3763,7 +3763,7 @@
       <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="3" width="24.45"/>
@@ -3941,7 +3941,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="3" width="24.45"/>
@@ -4119,7 +4119,7 @@
       <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="3" width="24.45"/>
@@ -4309,7 +4309,7 @@
       <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="3" width="24.45"/>
@@ -4499,7 +4499,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="3" width="24.45"/>
@@ -4689,7 +4689,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="3" width="24.45"/>
@@ -4879,7 +4879,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="3" width="24.45"/>
@@ -5069,7 +5069,7 @@
       <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="3" width="24.45"/>
@@ -5259,7 +5259,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="3" width="24.45"/>
@@ -5449,7 +5449,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="3" width="24.45"/>
@@ -5593,7 +5593,7 @@
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="3" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="3" width="19.31"/>
@@ -5753,7 +5753,7 @@
       <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="3" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="3" width="19.31"/>
@@ -5925,7 +5925,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="3" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="3" width="19.31"/>
@@ -6097,7 +6097,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="3" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="3" width="19.31"/>
@@ -6257,7 +6257,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -6408,7 +6408,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -6579,7 +6579,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -6750,7 +6750,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -6901,7 +6901,7 @@
       <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="3" width="24.45"/>
@@ -7091,7 +7091,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -7239,10 +7239,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -7332,7 +7332,7 @@
         <v>1000</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>199.99</v>
+        <v>239.99</v>
       </c>
       <c r="L2" s="3" t="n">
         <v>0</v>
@@ -7374,11 +7374,11 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="3" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="19.31"/>
@@ -7487,7 +7487,7 @@
         <v>1000</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>199.99</v>
+        <v>239.99</v>
       </c>
       <c r="N2" s="3" t="n">
         <v>0</v>
@@ -7533,7 +7533,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="3" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="19.31"/>
@@ -7676,7 +7676,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="3" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="19.31"/>
@@ -7831,7 +7831,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -8002,7 +8002,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -8153,7 +8153,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -8324,7 +8324,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -8475,7 +8475,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -8626,7 +8626,7 @@
       <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="3" width="24.45"/>
@@ -8804,7 +8804,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -8974,7 +8974,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -9125,7 +9125,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -9295,7 +9295,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -9431,7 +9431,7 @@
       <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="3" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="19.31"/>
@@ -9583,10 +9583,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="3" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="19.31"/>
@@ -9695,7 +9695,7 @@
         <v>1000</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>199.99</v>
+        <v>239.99</v>
       </c>
       <c r="N2" s="3" t="n">
         <v>0</v>
@@ -9738,10 +9738,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="3" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="19.31"/>
@@ -9838,7 +9838,7 @@
         <v>1000</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>199.99</v>
+        <v>239.99</v>
       </c>
       <c r="L2" s="3" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="3" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="19.31"/>
@@ -10039,7 +10039,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="3" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="19.31"/>
@@ -10182,7 +10182,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="3" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="19.31"/>
@@ -10337,7 +10337,7 @@
       <selection pane="topLeft" activeCell="AB2" activeCellId="0" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="6" style="3" width="24.45"/>
@@ -10536,10 +10536,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="3" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="19.31"/>
@@ -10648,7 +10648,7 @@
         <v>1000</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>199.99</v>
+        <v>239.99</v>
       </c>
       <c r="N2" s="3" t="n">
         <v>0</v>
@@ -10694,7 +10694,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="3" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="19.31"/>
@@ -10849,7 +10849,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="3" width="24.45"/>
@@ -10989,11 +10989,11 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="3" width="24.45"/>
@@ -11091,7 +11091,7 @@
         <v>1000</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>199.99</v>
+        <v>239.99</v>
       </c>
       <c r="L2" s="3" t="n">
         <v>0</v>
@@ -11137,7 +11137,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -11307,7 +11307,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -11458,7 +11458,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -11594,7 +11594,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -11765,7 +11765,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -11936,7 +11936,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -12106,7 +12106,7 @@
       <selection pane="topLeft" activeCell="AD2" activeCellId="0" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="6" style="3" width="24.45"/>
@@ -12320,7 +12320,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -12490,7 +12490,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -12641,7 +12641,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -12792,7 +12792,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -12963,7 +12963,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -13134,7 +13134,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -13291,7 +13291,7 @@
       <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -13448,7 +13448,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -13605,7 +13605,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="3" width="24.45"/>
@@ -13754,7 +13754,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -13922,7 +13922,7 @@
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="6" style="3" width="24.45"/>
@@ -14136,7 +14136,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.92"/>
@@ -14256,7 +14256,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
@@ -14438,7 +14438,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
@@ -14572,7 +14572,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -14732,7 +14732,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -14882,7 +14882,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -15042,7 +15042,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -15185,7 +15185,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -15335,7 +15335,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -15494,7 +15494,7 @@
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -15606,7 +15606,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="6" style="3" width="24.45"/>
@@ -15804,11 +15804,11 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -15902,7 +15902,7 @@
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -16014,7 +16014,7 @@
       <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="3" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="19.31"/>
@@ -16169,7 +16169,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -16305,7 +16305,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -16438,10 +16438,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="3" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="19.31"/>
@@ -16550,7 +16550,7 @@
         <v>1000</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>199.99</v>
+        <v>239.99</v>
       </c>
       <c r="N2" s="3" t="n">
         <v>0</v>
@@ -16596,7 +16596,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="3" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="19.31"/>
@@ -16739,7 +16739,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="3" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="19.31"/>
@@ -16894,7 +16894,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -16988,7 +16988,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="14.35"/>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OP_OP" sheetId="1" state="visible" r:id="rId2"/>
@@ -803,11 +803,11 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="A:M"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="0" width="11.52"/>
@@ -913,11 +913,11 @@
   </sheetPr>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="A:M"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -1092,10 +1092,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -1243,10 +1243,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA2" activeCellId="1" sqref="A:M AA2"/>
+      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -1439,10 +1439,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA2" activeCellId="1" sqref="A:M AA2"/>
+      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -1635,10 +1635,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA2" activeCellId="1" sqref="A:M AA2"/>
+      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -1831,10 +1831,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y2" activeCellId="1" sqref="A:M Y2"/>
+      <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -2027,10 +2027,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA2" activeCellId="1" sqref="A:M AA2"/>
+      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -2223,10 +2223,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y2" activeCellId="1" sqref="A:M Y2"/>
+      <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -2419,10 +2419,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y2" activeCellId="1" sqref="A:M Y2"/>
+      <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -2615,10 +2615,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y2" activeCellId="1" sqref="A:M Y2"/>
+      <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -2811,10 +2811,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X2" activeCellId="1" sqref="A:M X2"/>
+      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -2989,10 +2989,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -3144,10 +3144,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="A:M R2"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -3322,10 +3322,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="A:M T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -3500,10 +3500,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -3678,10 +3678,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X2" activeCellId="1" sqref="A:M X2"/>
+      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -3856,10 +3856,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -4034,10 +4034,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA2" activeCellId="1" sqref="A:M AA2"/>
+      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -4224,10 +4224,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="1" sqref="A:M S2"/>
+      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -4414,10 +4414,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -4604,10 +4604,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="1" sqref="A:M Z2"/>
+      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -4794,10 +4794,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="1" sqref="A:M Z2"/>
+      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -4983,11 +4983,11 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V2" activeCellId="1" sqref="A:M V2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V2" s="2" t="n">
         <v>20</v>
@@ -5174,10 +5174,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -5364,10 +5364,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="1" sqref="A:M R1"/>
+      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="2" width="24.45"/>
@@ -5508,10 +5508,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="1" sqref="A:M N2"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="2" width="19.31"/>
@@ -5668,10 +5668,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="1" sqref="A:M P2"/>
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="2" width="19.31"/>
@@ -5840,10 +5840,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="1" sqref="A:M U2"/>
+      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="2" width="19.31"/>
@@ -6012,10 +6012,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="1" sqref="A:M U2"/>
+      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="2" width="19.31"/>
@@ -6172,10 +6172,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="A:M T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -6323,10 +6323,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="1" sqref="A:M U2"/>
+      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -6494,10 +6494,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="A:M W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -6665,10 +6665,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="A:M T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -6816,10 +6816,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V2" activeCellId="1" sqref="A:M V2"/>
+      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -6969,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V2" s="2" t="n">
         <v>20</v>
@@ -7006,10 +7006,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="A:M T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -7157,10 +7157,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -7293,10 +7293,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -7448,10 +7448,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="1" sqref="A:M R1"/>
+      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.31"/>
@@ -7591,10 +7591,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -7746,10 +7746,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="1" sqref="A:M U2"/>
+      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -7917,10 +7917,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="A:M T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -8068,10 +8068,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="A:M W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -8239,10 +8239,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="A:M T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -8390,10 +8390,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -8541,10 +8541,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="1" sqref="A:M Q2"/>
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -8719,10 +8719,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="A:M W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -8889,10 +8889,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -9040,10 +9040,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="1" sqref="A:M N1"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -9210,10 +9210,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="A:M R2"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -9346,10 +9346,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -9501,10 +9501,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -9656,10 +9656,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.31"/>
@@ -9799,10 +9799,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -9954,10 +9954,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="A:M R2"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.31"/>
@@ -10097,10 +10097,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="A:M T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -10252,10 +10252,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB2" activeCellId="1" sqref="A:M AB2"/>
+      <selection pane="topLeft" activeCell="AB2" activeCellId="0" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="6" style="2" width="24.45"/>
@@ -10454,10 +10454,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -10609,10 +10609,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -10764,10 +10764,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="A:M R2"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="2" width="24.45"/>
@@ -10908,10 +10908,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="2" width="24.45"/>
@@ -11052,10 +11052,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -11222,10 +11222,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -11373,10 +11373,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="A:M R2"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -11509,10 +11509,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="1" sqref="A:M U2"/>
+      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -11680,10 +11680,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="A:M W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -11851,10 +11851,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="A:M W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -12021,10 +12021,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD2" activeCellId="1" sqref="A:M AD2"/>
+      <selection pane="topLeft" activeCell="AD2" activeCellId="0" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="6" style="2" width="24.45"/>
@@ -12235,10 +12235,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="1" sqref="A:M N1"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -12405,10 +12405,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="A:M T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -12556,10 +12556,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -12707,10 +12707,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -12878,10 +12878,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -13049,10 +13049,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -13206,10 +13206,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="1" sqref="A:M P1"/>
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -13363,10 +13363,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -13520,10 +13520,10 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="2" width="24.45"/>
@@ -13669,10 +13669,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -13837,10 +13837,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="1" sqref="A:M O2"/>
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="6" style="2" width="24.45"/>
@@ -14051,10 +14051,10 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.92"/>
@@ -14171,10 +14171,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
@@ -14353,10 +14353,10 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="1" sqref="A:M Q1"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
@@ -14487,10 +14487,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="1" sqref="A:M Q1"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -14647,10 +14647,10 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="1" sqref="A:M N1"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -14797,10 +14797,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="1" sqref="A:M Q1"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -14957,10 +14957,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -15100,10 +15100,10 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="1" sqref="A:M N1"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -15250,10 +15250,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -15409,10 +15409,10 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="1" sqref="A:M N2"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -15521,10 +15521,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="1" sqref="A:M N1"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="6" style="2" width="24.45"/>
@@ -15723,10 +15723,10 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -15817,10 +15817,10 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="1" sqref="A:M O2"/>
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -15929,10 +15929,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -16084,10 +16084,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="A:M R2"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -16220,10 +16220,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="A:M R2"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -16356,10 +16356,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -16511,10 +16511,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="1" sqref="A:M R1"/>
+      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.31"/>
@@ -16654,10 +16654,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -16809,10 +16809,10 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -16903,10 +16903,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A:M"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="14.35"/>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="OP_OP" sheetId="1" state="visible" r:id="rId2"/>
@@ -807,7 +807,7 @@
       <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="0" width="11.52"/>
@@ -917,7 +917,7 @@
       <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -1095,7 +1095,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -1246,7 +1246,7 @@
       <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -1442,7 +1442,7 @@
       <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -1638,7 +1638,7 @@
       <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -1834,7 +1834,7 @@
       <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -2030,7 +2030,7 @@
       <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -2226,7 +2226,7 @@
       <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -2422,7 +2422,7 @@
       <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -2618,7 +2618,7 @@
       <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -2810,11 +2810,11 @@
   </sheetPr>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T2" s="2" t="n">
         <v>20</v>
@@ -2988,11 +2988,11 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -3144,10 +3144,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T2" s="2" t="n">
         <v>20</v>
@@ -3322,10 +3322,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T2" s="2" t="n">
         <v>20</v>
@@ -3503,7 +3503,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -3681,7 +3681,7 @@
       <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -3859,7 +3859,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -4037,7 +4037,7 @@
       <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -4227,7 +4227,7 @@
       <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -4417,7 +4417,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -4607,7 +4607,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -4797,7 +4797,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -4983,11 +4983,11 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -5177,7 +5177,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -5367,7 +5367,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="2" width="24.45"/>
@@ -5511,7 +5511,7 @@
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="2" width="19.31"/>
@@ -5671,7 +5671,7 @@
       <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="2" width="19.31"/>
@@ -5843,7 +5843,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="2" width="19.31"/>
@@ -6015,7 +6015,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="2" width="19.31"/>
@@ -6175,7 +6175,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -6326,7 +6326,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -6497,7 +6497,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -6668,7 +6668,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -6819,7 +6819,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -7009,7 +7009,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -7160,7 +7160,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -7296,7 +7296,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -7451,7 +7451,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.31"/>
@@ -7594,7 +7594,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -7749,7 +7749,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -7920,7 +7920,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -8071,7 +8071,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -8242,7 +8242,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -8393,7 +8393,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -8544,7 +8544,7 @@
       <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -8722,7 +8722,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -8892,7 +8892,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -9043,7 +9043,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -9213,7 +9213,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -9349,7 +9349,7 @@
       <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -9504,7 +9504,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -9659,7 +9659,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.31"/>
@@ -9802,7 +9802,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -9957,7 +9957,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.31"/>
@@ -10100,7 +10100,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -10255,7 +10255,7 @@
       <selection pane="topLeft" activeCell="AB2" activeCellId="0" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="6" style="2" width="24.45"/>
@@ -10457,7 +10457,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -10612,7 +10612,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -10767,7 +10767,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="2" width="24.45"/>
@@ -10911,7 +10911,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="2" width="24.45"/>
@@ -11055,7 +11055,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -11225,7 +11225,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -11376,7 +11376,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -11512,7 +11512,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -11683,7 +11683,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -11854,7 +11854,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -12024,7 +12024,7 @@
       <selection pane="topLeft" activeCell="AD2" activeCellId="0" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="6" style="2" width="24.45"/>
@@ -12238,7 +12238,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -12408,7 +12408,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -12559,7 +12559,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -12710,7 +12710,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -12881,7 +12881,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -13052,7 +13052,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -13209,7 +13209,7 @@
       <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -13366,7 +13366,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -13523,7 +13523,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="2" width="24.45"/>
@@ -13672,7 +13672,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -13840,7 +13840,7 @@
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="6" style="2" width="24.45"/>
@@ -14054,7 +14054,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.92"/>
@@ -14174,7 +14174,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
@@ -14356,7 +14356,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
@@ -14490,7 +14490,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -14650,7 +14650,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -14800,7 +14800,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -14960,7 +14960,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -15103,7 +15103,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -15253,7 +15253,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -15412,7 +15412,7 @@
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -15524,7 +15524,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="6" style="2" width="24.45"/>
@@ -15726,7 +15726,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -15820,7 +15820,7 @@
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -15932,7 +15932,7 @@
       <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -16087,7 +16087,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -16223,7 +16223,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -16359,7 +16359,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -16514,7 +16514,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.31"/>
@@ -16657,7 +16657,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -16812,7 +16812,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -16906,7 +16906,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="14.35"/>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="57"/>
   </bookViews>
   <sheets>
     <sheet name="OP_OP" sheetId="1" state="visible" r:id="rId2"/>
@@ -807,7 +807,7 @@
       <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="0" width="11.52"/>
@@ -917,7 +917,7 @@
       <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -1095,7 +1095,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -1246,7 +1246,7 @@
       <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -1442,7 +1442,7 @@
       <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -1638,7 +1638,7 @@
       <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -1834,7 +1834,7 @@
       <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -2030,7 +2030,7 @@
       <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -2226,7 +2226,7 @@
       <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -2422,7 +2422,7 @@
       <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -2618,7 +2618,7 @@
       <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -2810,11 +2810,11 @@
   </sheetPr>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -2992,7 +2992,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -3147,7 +3147,7 @@
       <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -3325,7 +3325,7 @@
       <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -3503,7 +3503,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -3681,7 +3681,7 @@
       <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -3859,7 +3859,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -4037,7 +4037,7 @@
       <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -4227,7 +4227,7 @@
       <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -4417,7 +4417,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -4607,7 +4607,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -4797,7 +4797,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -4987,7 +4987,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -5177,7 +5177,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -5367,7 +5367,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="2" width="24.45"/>
@@ -5511,7 +5511,7 @@
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="2" width="19.31"/>
@@ -5671,7 +5671,7 @@
       <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="2" width="19.31"/>
@@ -5843,7 +5843,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="2" width="19.31"/>
@@ -6015,7 +6015,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="2" width="19.31"/>
@@ -6175,7 +6175,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -6326,7 +6326,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -6497,7 +6497,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -6668,7 +6668,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -6819,7 +6819,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="2" width="24.45"/>
@@ -7009,7 +7009,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -7160,7 +7160,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -7296,7 +7296,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -7451,7 +7451,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.31"/>
@@ -7594,7 +7594,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -7749,7 +7749,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -7920,7 +7920,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -8071,7 +8071,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -8242,7 +8242,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -8393,7 +8393,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -8544,7 +8544,7 @@
       <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="24.45"/>
@@ -8722,7 +8722,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -8892,7 +8892,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -9043,7 +9043,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -9213,7 +9213,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -9349,7 +9349,7 @@
       <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -9504,7 +9504,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -9659,7 +9659,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.31"/>
@@ -9802,7 +9802,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -9953,11 +9953,11 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.31"/>
@@ -10100,7 +10100,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -10255,7 +10255,7 @@
       <selection pane="topLeft" activeCell="AB2" activeCellId="0" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="6" style="2" width="24.45"/>
@@ -10457,7 +10457,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -10612,7 +10612,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -10767,7 +10767,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="2" width="24.45"/>
@@ -10911,7 +10911,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="2" width="24.45"/>
@@ -11055,7 +11055,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -11225,7 +11225,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -11376,7 +11376,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -11512,7 +11512,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -11683,7 +11683,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -11854,7 +11854,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -12024,7 +12024,7 @@
       <selection pane="topLeft" activeCell="AD2" activeCellId="0" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="6" style="2" width="24.45"/>
@@ -12238,7 +12238,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -12408,7 +12408,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -12559,7 +12559,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -12710,7 +12710,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -12881,7 +12881,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -13052,7 +13052,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -13209,7 +13209,7 @@
       <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -13366,7 +13366,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -13523,7 +13523,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="2" width="24.45"/>
@@ -13672,7 +13672,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -13840,7 +13840,7 @@
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="6" style="2" width="24.45"/>
@@ -14054,7 +14054,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.92"/>
@@ -14174,7 +14174,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
@@ -14356,7 +14356,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
@@ -14490,7 +14490,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -14650,7 +14650,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -14800,7 +14800,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -14960,7 +14960,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -15103,7 +15103,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -15253,7 +15253,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -15412,7 +15412,7 @@
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -15524,7 +15524,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="6" style="2" width="24.45"/>
@@ -15726,7 +15726,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -15820,7 +15820,7 @@
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -15932,7 +15932,7 @@
       <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -16087,7 +16087,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -16223,7 +16223,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -16359,7 +16359,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -16510,11 +16510,11 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.31"/>
@@ -16657,7 +16657,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.31"/>
@@ -16812,7 +16812,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -16906,7 +16906,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="14.35"/>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="94"/>
   </bookViews>
   <sheets>
     <sheet name="HPNR_BCH_withMaint_used_car" sheetId="1" state="visible" r:id="rId2"/>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="142">
   <si>
     <t xml:space="preserve">registrationNumber</t>
   </si>
@@ -581,6 +581,9 @@
     <t xml:space="preserve">HirePurchaseNonRegulated</t>
   </si>
   <si>
+    <t xml:space="preserve">otherSupportValue</t>
+  </si>
+  <si>
     <t xml:space="preserve">Formula1-FL</t>
   </si>
   <si>
@@ -672,6 +675,9 @@
   </si>
   <si>
     <t xml:space="preserve">matrix_upsell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OtherSupportValue</t>
   </si>
   <si>
     <t xml:space="preserve">cashdeposite</t>
@@ -819,11 +825,11 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E1:E2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="952" min="952" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="953" style="0" width="11.52"/>
@@ -971,11 +977,11 @@
   </sheetPr>
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U1" activeCellId="1" sqref="E1:E2 U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="6" style="1" width="24.45"/>
@@ -1174,10 +1180,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="E1:E2 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.88671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -1199,7 +1205,7 @@
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>43</v>
@@ -1208,25 +1214,25 @@
         <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1289,10 +1295,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="1" sqref="E1:E2 K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -1440,10 +1446,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="E1:E2 H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="24.45"/>
@@ -1618,10 +1624,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="E1:E2 T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="24.45"/>
@@ -1765,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>199.99</v>
+        <v>239.99</v>
       </c>
       <c r="S2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U2" s="1" t="n">
         <v>20</v>
@@ -1814,10 +1820,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="E1:E2 T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="24.45"/>
@@ -1967,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U2" s="1" t="n">
         <v>20</v>
@@ -2010,10 +2016,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="E1:E2 T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="24.45"/>
@@ -2157,13 +2163,13 @@
         <v>0</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>199.99</v>
+        <v>239.99</v>
       </c>
       <c r="S2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U2" s="1" t="n">
         <v>20</v>
@@ -2206,10 +2212,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="E1:E2 T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="24.45"/>
@@ -2359,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U2" s="1" t="n">
         <v>20</v>
@@ -2401,11 +2407,11 @@
   </sheetPr>
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="E1:E2 R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="24.45"/>
@@ -2549,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>199.99</v>
+        <v>239.99</v>
       </c>
       <c r="S2" s="1" t="n">
         <v>0</v>
@@ -2597,11 +2603,11 @@
   </sheetPr>
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y2" activeCellId="1" sqref="E1:E2 Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="24.45"/>
@@ -2794,10 +2800,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
+      <selection pane="topLeft" activeCell="Y2" activeCellId="1" sqref="E1:E2 Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="24.45"/>
@@ -2990,10 +2996,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
+      <selection pane="topLeft" activeCell="Y2" activeCellId="1" sqref="E1:E2 Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="24.45"/>
@@ -3186,10 +3192,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="1" sqref="E1:E2 M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="0" width="11.52"/>
@@ -3296,10 +3302,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
+      <selection pane="topLeft" activeCell="S2" activeCellId="1" sqref="E1:E2 S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="24.45"/>
@@ -3474,10 +3480,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
+      <selection pane="topLeft" activeCell="S2" activeCellId="1" sqref="E1:E2 S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="24.45"/>
@@ -3652,10 +3658,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
+      <selection pane="topLeft" activeCell="S2" activeCellId="1" sqref="E1:E2 S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="24.45"/>
@@ -3830,10 +3836,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="E1:E2 M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="24.45"/>
@@ -4008,10 +4014,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
+      <selection pane="topLeft" activeCell="X2" activeCellId="1" sqref="E1:E2 X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="24.45"/>
@@ -4186,10 +4192,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="E1:E2 M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="24.45"/>
@@ -4364,10 +4370,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
+      <selection pane="topLeft" activeCell="AA2" activeCellId="1" sqref="E1:E2 AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="1" width="24.45"/>
@@ -4554,10 +4560,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
+      <selection pane="topLeft" activeCell="S2" activeCellId="1" sqref="E1:E2 S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="1" width="24.45"/>
@@ -4744,10 +4750,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E1:E2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="1" width="24.45"/>
@@ -4934,10 +4940,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+      <selection pane="topLeft" activeCell="Z2" activeCellId="1" sqref="E1:E2 Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="1" width="24.45"/>
@@ -5124,10 +5130,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+      <selection pane="topLeft" activeCell="B38" activeCellId="1" sqref="E1:E2 B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -5279,10 +5285,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+      <selection pane="topLeft" activeCell="Z2" activeCellId="1" sqref="E1:E2 Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="1" width="24.45"/>
@@ -5469,10 +5475,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E1:E2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="1" width="24.45"/>
@@ -5659,10 +5665,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="topLeft" activeCell="R1" activeCellId="1" sqref="E1:E2 R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="24.45"/>
@@ -5803,10 +5809,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="1" sqref="E1:E2 N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -5963,10 +5969,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+      <selection pane="topLeft" activeCell="P2" activeCellId="1" sqref="E1:E2 P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -6135,10 +6141,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
+      <selection pane="topLeft" activeCell="U2" activeCellId="1" sqref="E1:E2 U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -6307,10 +6313,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
+      <selection pane="topLeft" activeCell="U2" activeCellId="1" sqref="E1:E2 U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -6467,10 +6473,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="E1:E2 T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -6618,10 +6624,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
+      <selection pane="topLeft" activeCell="U2" activeCellId="1" sqref="E1:E2 U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -6789,10 +6795,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="E1:E2 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -6960,10 +6966,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
+      <selection pane="topLeft" activeCell="U2" activeCellId="1" sqref="E1:E2 U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="1" width="24.45"/>
@@ -7150,10 +7156,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="E1:E2 T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -7301,10 +7307,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="E1:E2 T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -7452,10 +7458,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="1" sqref="E1:E2 K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7588,10 +7594,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="E1:E2 M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -7743,10 +7749,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="topLeft" activeCell="R1" activeCellId="1" sqref="E1:E2 R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -7886,10 +7892,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+      <selection pane="topLeft" activeCell="B38" activeCellId="1" sqref="E1:E2 B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -8041,10 +8047,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
+      <selection pane="topLeft" activeCell="U2" activeCellId="1" sqref="E1:E2 U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -8212,10 +8218,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="E1:E2 T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -8363,10 +8369,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="E1:E2 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -8534,10 +8540,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="E1:E2 T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -8685,10 +8691,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
+      <selection pane="topLeft" activeCell="U2" activeCellId="1" sqref="E1:E2 U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="1" width="24.45"/>
@@ -8875,10 +8881,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="1" sqref="E1:E2 K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -9026,10 +9032,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="E1:E2 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -9196,10 +9202,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="1" sqref="E1:E2 K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -9347,10 +9353,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="1" sqref="E1:E2 N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -9514,13 +9520,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9536,45 +9542,48 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9592,46 +9601,49 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="G2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="I2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>1000</v>
-      </c>
       <c r="K2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>199.99</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>105</v>
+      <c r="R2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -9650,19 +9662,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="25.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9679,51 +9690,54 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9741,52 +9755,55 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>100</v>
       </c>
       <c r="G2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
       <c r="M2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="1" t="n">
         <v>199.99</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="Q2" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="R2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>105</v>
+      <c r="T2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -9805,19 +9822,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="E1:E2 G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="25.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9834,51 +9850,54 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9896,51 +9915,54 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>100</v>
       </c>
       <c r="G2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
       <c r="M2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="1" t="n">
         <v>239.99</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="Q2" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="R2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -9960,19 +9982,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="27.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="27.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9989,45 +10010,48 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10045,45 +10069,48 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="G2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="I2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>1000</v>
-      </c>
       <c r="K2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>239.99</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -10103,19 +10130,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="25.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10132,51 +10158,54 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10200,45 +10229,48 @@
         <v>100</v>
       </c>
       <c r="G2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
       <c r="M2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="1" t="n">
         <v>199.99</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="Q2" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="R2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10258,19 +10290,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="27.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="27.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10287,45 +10318,48 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10346,42 +10380,45 @@
         <v>100</v>
       </c>
       <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="I2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>1000</v>
-      </c>
       <c r="K2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>199.99</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10404,10 +10441,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+      <selection pane="topLeft" activeCell="Q2" activeCellId="1" sqref="E1:E2 Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="24.45"/>
@@ -10582,10 +10619,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="E1:E2 T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -10715,7 +10752,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -10737,10 +10774,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="E1:E2 M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -10892,10 +10929,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+      <selection pane="topLeft" activeCell="B38" activeCellId="1" sqref="E1:E2 B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -11047,10 +11084,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="E1:E2 R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="24.45"/>
@@ -11169,7 +11206,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -11191,10 +11228,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="1" sqref="E1:E2 K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="24.45"/>
@@ -11335,10 +11372,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="E1:E2 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -11505,10 +11542,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E1:E2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -11656,10 +11693,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="E1:E2 R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -11770,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -11792,10 +11829,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
+      <selection pane="topLeft" activeCell="U2" activeCellId="1" sqref="E1:E2 U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -11963,10 +12000,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="E1:E2 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -12134,10 +12171,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB2" activeCellId="0" sqref="AB2"/>
+      <selection pane="topLeft" activeCell="S2" activeCellId="1" sqref="E1:E2 S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="6" style="1" width="24.45"/>
@@ -12287,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>199.99</v>
+        <v>239.99</v>
       </c>
       <c r="T2" s="1" t="n">
         <v>0</v>
@@ -12336,10 +12373,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="E1:E2 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -12506,10 +12543,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="1" sqref="E1:E2 N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -12676,10 +12713,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="E1:E2 T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -12827,10 +12864,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="1" sqref="E1:E2 K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -12978,10 +13015,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="1" sqref="E1:E2 J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -12990,37 +13027,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>49</v>
@@ -13032,28 +13069,28 @@
         <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>19</v>
@@ -13103,7 +13140,7 @@
         <v>100</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>2</v>
@@ -13149,10 +13186,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="1" sqref="E1:E2 J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -13161,37 +13198,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>49</v>
@@ -13203,28 +13240,28 @@
         <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>19</v>
@@ -13274,7 +13311,7 @@
         <v>100</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>2</v>
@@ -13320,10 +13357,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E1:E2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -13332,40 +13369,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>57</v>
@@ -13374,22 +13411,22 @@
         <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>19</v>
@@ -13437,7 +13474,7 @@
         <v>100</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>1</v>
@@ -13477,10 +13514,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topLeft" activeCell="P1" activeCellId="1" sqref="E1:E2 P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -13489,40 +13526,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>57</v>
@@ -13531,22 +13568,22 @@
         <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>19</v>
@@ -13594,7 +13631,7 @@
         <v>100</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>1</v>
@@ -13634,10 +13671,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="E1:E2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -13646,37 +13683,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>49</v>
@@ -13685,25 +13722,25 @@
         <v>50</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>19</v>
@@ -13748,7 +13785,7 @@
         <v>100</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O2" s="1" t="n">
         <v>2</v>
@@ -13791,10 +13828,10 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="E1:E2 M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="24.45"/>
@@ -13939,11 +13976,11 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD2" activeCellId="0" sqref="AD2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="E1:E2 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="6" style="1" width="24.45"/>
@@ -14105,13 +14142,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>199.99</v>
+        <v>239.99</v>
       </c>
       <c r="V2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X2" s="1" t="n">
         <v>20</v>
@@ -14154,10 +14191,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -14169,7 +14206,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -14181,52 +14218,52 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>46</v>
@@ -14300,7 +14337,7 @@
         <v>200</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -14322,10 +14359,10 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="1" sqref="E1:E2 J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.92"/>
@@ -14337,7 +14374,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -14346,34 +14383,34 @@
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>19</v>
@@ -14420,7 +14457,7 @@
         <v>5</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -14442,10 +14479,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="E1:E2 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
@@ -14453,7 +14490,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -14465,61 +14502,61 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>46</v>
@@ -14602,7 +14639,7 @@
         <v>200</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -14624,10 +14661,10 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="1" sqref="E1:E2 Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
@@ -14635,7 +14672,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -14644,43 +14681,43 @@
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>19</v>
@@ -14736,7 +14773,7 @@
         <v>20</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -14758,14 +14795,14 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="1" sqref="E1:E2 Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -14777,52 +14814,52 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>46</v>
@@ -14918,10 +14955,10 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="1" sqref="E1:E2 N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -14933,7 +14970,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -14945,43 +14982,43 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>46</v>
@@ -15068,14 +15105,14 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="1" sqref="E1:E2 Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -15087,52 +15124,52 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>46</v>
@@ -15228,10 +15265,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="E1:E2 I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -15242,7 +15279,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -15260,37 +15297,37 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>19</v>
@@ -15371,10 +15408,10 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="1" sqref="E1:E2 N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -15386,7 +15423,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -15398,43 +15435,43 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>46</v>
@@ -15521,10 +15558,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="1" sqref="E1:E2 J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -15533,37 +15570,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>49</v>
@@ -15572,25 +15609,25 @@
         <v>50</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>19</v>
@@ -15637,7 +15674,7 @@
         <v>100</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O2" s="1" t="n">
         <v>2</v>
@@ -15679,11 +15716,11 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="E1:E2 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="6" style="1" width="24.45"/>
@@ -15851,7 +15888,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X2" s="1" t="n">
         <v>20</v>
@@ -15894,14 +15931,14 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="1" sqref="E1:E2 N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -15910,34 +15947,34 @@
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>19</v>
@@ -16006,14 +16043,14 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="1" sqref="E1:E2 K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -16022,25 +16059,25 @@
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>19</v>
@@ -16100,14 +16137,14 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+      <selection pane="topLeft" activeCell="O2" activeCellId="1" sqref="E1:E2 O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -16116,34 +16153,34 @@
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>19</v>
@@ -16209,19 +16246,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="25.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16238,51 +16274,54 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -16300,52 +16339,55 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>100</v>
       </c>
       <c r="G2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
       <c r="M2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="1" t="n">
         <v>199.99</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="Q2" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="R2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>105</v>
+      <c r="T2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -16364,13 +16406,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16386,45 +16428,48 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -16442,45 +16487,48 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="G2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="I2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>1000</v>
-      </c>
       <c r="K2" s="1" t="n">
-        <v>199.99</v>
+        <v>1000</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
+        <v>239.99</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -16500,13 +16548,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16522,45 +16570,48 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -16578,46 +16629,49 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="G2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="I2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>1000</v>
-      </c>
       <c r="K2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>199.99</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>105</v>
+      <c r="R2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -16636,19 +16690,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="25.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16665,51 +16718,54 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -16727,51 +16783,54 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>100</v>
       </c>
       <c r="G2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
       <c r="M2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="1" t="n">
         <v>239.99</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="Q2" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="R2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -16791,19 +16850,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="27.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="27.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16820,45 +16878,48 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -16879,42 +16940,45 @@
         <v>100</v>
       </c>
       <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="I2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>1000</v>
-      </c>
       <c r="K2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>199.99</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -16934,19 +16998,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="25.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16963,51 +17026,54 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -17031,45 +17097,48 @@
         <v>100</v>
       </c>
       <c r="G2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>1000</v>
-      </c>
       <c r="M2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="1" t="n">
         <v>199.99</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="Q2" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="R2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -17092,14 +17161,14 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="E1:E2 I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -17108,25 +17177,25 @@
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>19</v>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="90"/>
   </bookViews>
   <sheets>
     <sheet name="HPNR_BCH_withMaint_used_car" sheetId="1" state="visible" r:id="rId2"/>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="147">
   <si>
     <t xml:space="preserve">registrationNumber</t>
   </si>
@@ -841,10 +841,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="R1:V2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K:N A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="952" min="952" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="953" style="0" width="11.52"/>
@@ -993,10 +993,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="R1:V2"/>
+      <selection pane="topLeft" activeCell="U1" activeCellId="1" sqref="K:N U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="6" style="1" width="24.45"/>
@@ -1195,10 +1195,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="R1:V2 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="K:N A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -1310,10 +1310,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="1" sqref="R1:V2 K2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K:N"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.08"/>
   </cols>
@@ -1460,11 +1460,11 @@
   </sheetPr>
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1:V2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R1" activeCellId="1" sqref="K:N R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="24.45"/>
@@ -1663,10 +1663,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="R1:V2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="K:N T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="24.45"/>
@@ -1859,10 +1859,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="R1:V2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="K:N T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="24.45"/>
@@ -2055,10 +2055,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="R1:V2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="K:N T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="24.45"/>
@@ -2251,10 +2251,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="R1:V2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="K:N T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="24.45"/>
@@ -2447,10 +2447,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R1:V2"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="K:N R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="24.45"/>
@@ -2643,10 +2643,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y2" activeCellId="1" sqref="R1:V2 Y2"/>
+      <selection pane="topLeft" activeCell="Y2" activeCellId="1" sqref="K:N Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="